--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="7965" tabRatio="816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
     <sheet name="2017-09-08" sheetId="31" r:id="rId2"/>
     <sheet name="2017-09-15" sheetId="32" r:id="rId3"/>
+    <sheet name="2017-09-22" sheetId="33" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="34">
   <si>
     <t>Baan</t>
   </si>
@@ -477,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352C3DA4-0859-4A79-BCDC-6AED6C976CA0}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1183,7 +1184,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1404,6 +1405,9 @@
       </c>
       <c r="F10">
         <v>2</v>
+      </c>
+      <c r="L10">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1802,7 +1806,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2552,4 +2556,709 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BA774E-56BD-4D8C-8026-D9C1158F7646}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
     <sheet name="2017-09-08" sheetId="31" r:id="rId2"/>
     <sheet name="2017-09-15" sheetId="32" r:id="rId3"/>
     <sheet name="2017-09-22" sheetId="33" r:id="rId4"/>
+    <sheet name="2017-09-29" sheetId="34" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="34">
   <si>
     <t>Baan</t>
   </si>
@@ -2562,8 +2563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BA774E-56BD-4D8C-8026-D9C1158F7646}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3261,4 +3262,709 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BC75FD-5DEE-4CBE-8E9A-FB4E0164F152}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="2017-09-15" sheetId="32" r:id="rId3"/>
     <sheet name="2017-09-22" sheetId="33" r:id="rId4"/>
     <sheet name="2017-09-29" sheetId="34" r:id="rId5"/>
+    <sheet name="2017-10-06" sheetId="35" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="34">
   <si>
     <t>Baan</t>
   </si>
@@ -3268,8 +3269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BC75FD-5DEE-4CBE-8E9A-FB4E0164F152}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3967,4 +3968,635 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05C0B68-CA48-4B87-8CAF-B4ACCFDA9873}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="2017-09-22" sheetId="33" r:id="rId4"/>
     <sheet name="2017-09-29" sheetId="34" r:id="rId5"/>
     <sheet name="2017-10-06" sheetId="35" r:id="rId6"/>
+    <sheet name="2017-10-13" sheetId="36" r:id="rId7"/>
+    <sheet name="2017-10-20" sheetId="37" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="34">
   <si>
     <t>Baan</t>
   </si>
@@ -3974,8 +3976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05C0B68-CA48-4B87-8CAF-B4ACCFDA9873}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4599,4 +4601,1463 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A403CCB-8394-4568-B447-BBAE0A5578FF}">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C7586B-C799-467D-A237-64C045A098C9}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="2017-10-06" sheetId="35" r:id="rId6"/>
     <sheet name="2017-10-13" sheetId="36" r:id="rId7"/>
     <sheet name="2017-10-20" sheetId="37" r:id="rId8"/>
+    <sheet name="2017-10-27" sheetId="38" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="34">
   <si>
     <t>Baan</t>
   </si>
@@ -5395,8 +5396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C7586B-C799-467D-A237-64C045A098C9}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6060,4 +6061,746 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B79339-ABA6-45D9-94B6-E119C3E8CF3A}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:L35">
+    <sortCondition ref="C2:C35"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\src\dartsense\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" tabRatio="816" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -21,13 +21,15 @@
     <sheet name="2017-10-13" sheetId="36" r:id="rId7"/>
     <sheet name="2017-10-20" sheetId="37" r:id="rId8"/>
     <sheet name="2017-10-27" sheetId="38" r:id="rId9"/>
+    <sheet name="2017-11-03" sheetId="39" r:id="rId10"/>
+    <sheet name="2017-11-10" sheetId="40" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="34">
   <si>
     <t>Baan</t>
   </si>
@@ -1184,6 +1186,1376 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083E02DF-4549-44B0-82A0-5138AAA2D8C4}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE6BBD-F109-4316-B974-3F2D46DE0874}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340E391C-D75D-4556-AB26-D638917E4540}">
   <dimension ref="A1:L29"/>
@@ -6067,8 +7439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B79339-ABA6-45D9-94B6-E119C3E8CF3A}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" tabRatio="816" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" tabRatio="816" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="2017-10-27" sheetId="38" r:id="rId9"/>
     <sheet name="2017-11-03" sheetId="39" r:id="rId10"/>
     <sheet name="2017-11-10" sheetId="40" r:id="rId11"/>
+    <sheet name="2017-11-17" sheetId="41" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="34">
   <si>
     <t>Baan</t>
   </si>
@@ -1898,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE6BBD-F109-4316-B974-3F2D46DE0874}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2548,6 +2549,711 @@
         <v>2</v>
       </c>
       <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761DDCA5-86BA-4444-BD85-7B32F04A50F9}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
         <v>1</v>
       </c>
     </row>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" tabRatio="816" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" tabRatio="816" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="2017-11-03" sheetId="39" r:id="rId10"/>
     <sheet name="2017-11-10" sheetId="40" r:id="rId11"/>
     <sheet name="2017-11-17" sheetId="41" r:id="rId12"/>
+    <sheet name="2017-11-24" sheetId="42" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="34">
   <si>
     <t>Baan</t>
   </si>
@@ -2561,8 +2562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761DDCA5-86BA-4444-BD85-7B32F04A50F9}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3255,6 +3256,717 @@
       </c>
       <c r="F33">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45142F60-84CC-4F9C-AFBB-0D5EE4BFD368}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" tabRatio="816" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="2017-11-10" sheetId="40" r:id="rId11"/>
     <sheet name="2017-11-17" sheetId="41" r:id="rId12"/>
     <sheet name="2017-11-24" sheetId="42" r:id="rId13"/>
+    <sheet name="2017-12-01" sheetId="43" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="34">
   <si>
     <t>Baan</t>
   </si>
@@ -3267,8 +3268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45142F60-84CC-4F9C-AFBB-0D5EE4BFD368}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3967,6 +3968,720 @@
       </c>
       <c r="F33">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF9FEE4-A956-4030-A2C7-8E1F89B76537}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="1" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -26,13 +26,15 @@
     <sheet name="2017-11-17" sheetId="41" r:id="rId12"/>
     <sheet name="2017-11-24" sheetId="42" r:id="rId13"/>
     <sheet name="2017-12-01" sheetId="43" r:id="rId14"/>
+    <sheet name="2017-12-08" sheetId="44" r:id="rId15"/>
+    <sheet name="2017-12-15" sheetId="45" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="34">
   <si>
     <t>Baan</t>
   </si>
@@ -3979,8 +3981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF9FEE4-A956-4030-A2C7-8E1F89B76537}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4682,6 +4684,1382 @@
       </c>
       <c r="F33">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A2F893-B6D9-49B7-AB53-A7279283B71A}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C006C4D4-25CC-4EEB-9EF5-626982FEB6B1}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="1" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="2" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -28,13 +28,14 @@
     <sheet name="2017-12-01" sheetId="43" r:id="rId14"/>
     <sheet name="2017-12-08" sheetId="44" r:id="rId15"/>
     <sheet name="2017-12-15" sheetId="45" r:id="rId16"/>
+    <sheet name="2017-12-22" sheetId="46" r:id="rId17"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="35">
   <si>
     <t>Baan</t>
   </si>
@@ -136,6 +137,9 @@
   </si>
   <si>
     <t>Gert</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -5329,6 +5333,748 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C006C4D4-25CC-4EEB-9EF5-626982FEB6B1}">
   <dimension ref="A1:L35"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226C0943-8F28-4060-82B4-FF98E7D0DA77}">
+  <dimension ref="A1:M35"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
@@ -5375,16 +6121,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -5395,39 +6141,39 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -5438,10 +6184,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -5450,61 +6196,61 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -5515,36 +6261,36 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -5555,22 +6301,22 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5578,33 +6324,36 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -5615,385 +6364,394 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>4</v>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
         <v>30</v>
       </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
       </c>
       <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
         <v>12</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
         <v>19</v>
       </c>
-      <c r="D25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>6</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
         <v>19</v>
       </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>5</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>6</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" t="s">
-        <v>21</v>
-      </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -6004,42 +6762,42 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -6047,19 +6805,19 @@
         <v>4</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="2" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="3" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -29,13 +29,14 @@
     <sheet name="2017-12-08" sheetId="44" r:id="rId15"/>
     <sheet name="2017-12-15" sheetId="45" r:id="rId16"/>
     <sheet name="2017-12-22" sheetId="46" r:id="rId17"/>
+    <sheet name="2018-01-05" sheetId="47" r:id="rId18"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="35">
   <si>
     <t>Baan</t>
   </si>
@@ -6075,8 +6076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226C0943-8F28-4060-82B4-FF98E7D0DA77}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6817,6 +6818,797 @@
         <v>2</v>
       </c>
       <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2907A4BB-DF2C-4A0A-9353-7EB174A502DB}">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
         <v>1</v>
       </c>
     </row>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="3" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="5" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -30,13 +30,15 @@
     <sheet name="2017-12-15" sheetId="45" r:id="rId16"/>
     <sheet name="2017-12-22" sheetId="46" r:id="rId17"/>
     <sheet name="2018-01-05" sheetId="47" r:id="rId18"/>
+    <sheet name="2018-01-12" sheetId="48" r:id="rId19"/>
+    <sheet name="2018-01-17" sheetId="49" r:id="rId20"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="35">
   <si>
     <t>Baan</t>
   </si>
@@ -6830,8 +6832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2907A4BB-DF2C-4A0A-9353-7EB174A502DB}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7610,6 +7612,714 @@
       </c>
       <c r="F37">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A483D5B-9674-42E4-AF88-BEE7B4304CC2}">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8231,6 +8941,668 @@
         <v>0</v>
       </c>
       <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A048501-3368-493E-ABDA-47A0A3E44E54}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>2</v>
       </c>
     </row>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="5" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="6" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -32,13 +32,14 @@
     <sheet name="2018-01-05" sheetId="47" r:id="rId18"/>
     <sheet name="2018-01-12" sheetId="48" r:id="rId19"/>
     <sheet name="2018-01-17" sheetId="49" r:id="rId20"/>
+    <sheet name="2018-01-24" sheetId="50" r:id="rId21"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="35">
   <si>
     <t>Baan</t>
   </si>
@@ -8953,8 +8954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A048501-3368-493E-ABDA-47A0A3E44E54}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9604,6 +9605,591 @@
       </c>
       <c r="F31">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C153DA0-DAC9-4FB5-8CE7-A26394407C04}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/dartsense/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="6" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="816" firstSheet="8" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <sheet name="2018-01-17" sheetId="49" r:id="rId20"/>
     <sheet name="2018-01-24" sheetId="50" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -495,16 +495,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352C3DA4-0859-4A79-BCDC-6AED6C976CA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -542,7 +542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>6</v>
       </c>
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -582,7 +582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -605,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -708,7 +708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -728,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5</v>
       </c>
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -808,7 +808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -828,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -848,7 +848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -868,7 +868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -888,7 +888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5</v>
       </c>
@@ -908,7 +908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>5</v>
       </c>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -991,7 +991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1200,16 +1200,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083E02DF-4549-44B0-82A0-5138AAA2D8C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>4</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>6</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1908,16 +1908,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FE6BBD-F109-4316-B974-3F2D46DE0874}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>5</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2570,16 +2570,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761DDCA5-86BA-4444-BD85-7B32F04A50F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>5</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>6</v>
       </c>
@@ -3275,16 +3275,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45142F60-84CC-4F9C-AFBB-0D5EE4BFD368}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>4</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>6</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>6</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>6</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3986,16 +3986,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF9FEE4-A956-4030-A2C7-8E1F89B76537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>4</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>2</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>5</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>5</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>4</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>5</v>
       </c>
@@ -4700,16 +4700,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A2F893-B6D9-49B7-AB53-A7279283B71A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -5334,16 +5334,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C006C4D4-25CC-4EEB-9EF5-626982FEB6B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>6</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>4</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>4</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>4</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>4</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>5</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>5</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>6</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>4</v>
       </c>
@@ -6076,16 +6076,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226C0943-8F28-4060-82B4-FF98E7D0DA77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>5</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>5</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>6</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>5</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>4</v>
       </c>
@@ -6830,16 +6830,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2907A4BB-DF2C-4A0A-9353-7EB174A502DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>6</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>5</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>5</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>6</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>2</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>5</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>3</v>
       </c>
@@ -7621,16 +7621,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A483D5B-9674-42E4-AF88-BEE7B4304CC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>5</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>5</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>6</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -8329,16 +8329,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340E391C-D75D-4556-AB26-D638917E4540}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>4</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>6</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>5</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>4</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>4</v>
       </c>
@@ -8951,16 +8951,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A048501-3368-493E-ABDA-47A0A3E44E54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>4</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>5</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>4</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>5</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>5</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>6</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -9613,16 +9613,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C153DA0-DAC9-4FB5-8CE7-A26394407C04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -9865,8 +9865,11 @@
       <c r="F11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9886,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -9906,7 +9909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -9926,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -9949,7 +9952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -9969,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -9989,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -10009,7 +10012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -10032,7 +10035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -10052,7 +10055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2</v>
       </c>
@@ -10072,7 +10075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -10092,7 +10095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -10112,7 +10115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -10132,7 +10135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>5</v>
       </c>
@@ -10152,7 +10155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -10172,7 +10175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2</v>
       </c>
@@ -10198,16 +10201,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904F9C83-7D29-4B7B-A68C-211DDAA67796}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10245,7 +10248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>4</v>
       </c>
@@ -10265,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>5</v>
       </c>
@@ -10288,7 +10291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -10311,7 +10314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10331,7 +10334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10351,7 +10354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10371,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10391,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -10414,7 +10417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -10434,7 +10437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5</v>
       </c>
@@ -10454,7 +10457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>4</v>
       </c>
@@ -10474,7 +10477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -10494,7 +10497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -10514,7 +10517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -10534,7 +10537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>4</v>
       </c>
@@ -10557,7 +10560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>6</v>
       </c>
@@ -10580,7 +10583,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5</v>
       </c>
@@ -10600,7 +10603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>4</v>
       </c>
@@ -10620,7 +10623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -10640,7 +10643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -10660,7 +10663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -10680,7 +10683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -10700,7 +10703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>4</v>
       </c>
@@ -10720,7 +10723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -10740,7 +10743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -10760,7 +10763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -10780,7 +10783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3</v>
       </c>
@@ -10806,7 +10809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5</v>
       </c>
@@ -10826,7 +10829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>6</v>
       </c>
@@ -10846,7 +10849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6</v>
       </c>
@@ -10866,7 +10869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>4</v>
       </c>
@@ -10886,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>4</v>
       </c>
@@ -10906,7 +10909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3</v>
       </c>
@@ -10926,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -10955,16 +10958,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BA774E-56BD-4D8C-8026-D9C1158F7646}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11002,7 +11005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>4</v>
       </c>
@@ -11022,7 +11025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>5</v>
       </c>
@@ -11042,7 +11045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -11062,7 +11065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11082,7 +11085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11102,7 +11105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -11122,7 +11125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11142,7 +11145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -11162,7 +11165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4</v>
       </c>
@@ -11182,7 +11185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -11202,7 +11205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -11222,7 +11225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5</v>
       </c>
@@ -11242,7 +11245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -11262,7 +11265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -11282,7 +11285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -11302,7 +11305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
@@ -11322,7 +11325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -11342,7 +11345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -11362,7 +11365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>5</v>
       </c>
@@ -11382,7 +11385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -11402,7 +11405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5</v>
       </c>
@@ -11422,7 +11425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -11442,7 +11445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>5</v>
       </c>
@@ -11462,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -11485,7 +11488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -11505,7 +11508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>5</v>
       </c>
@@ -11525,7 +11528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3</v>
       </c>
@@ -11548,7 +11551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>6</v>
       </c>
@@ -11571,7 +11574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>5</v>
       </c>
@@ -11591,7 +11594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>4</v>
       </c>
@@ -11611,7 +11614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>6</v>
       </c>
@@ -11631,7 +11634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -11660,16 +11663,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BC75FD-5DEE-4CBE-8E9A-FB4E0164F152}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11707,7 +11710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -11727,7 +11730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -11747,7 +11750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -11767,7 +11770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -11787,7 +11790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -11807,7 +11810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11827,7 +11830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -11847,7 +11850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4</v>
       </c>
@@ -11867,7 +11870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4</v>
       </c>
@@ -11887,7 +11890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -11907,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>4</v>
       </c>
@@ -11927,7 +11930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -11947,7 +11950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>4</v>
       </c>
@@ -11967,7 +11970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -11987,7 +11990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -12007,7 +12010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>6</v>
       </c>
@@ -12027,7 +12030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -12047,7 +12050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -12070,7 +12073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -12090,7 +12093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2</v>
       </c>
@@ -12110,7 +12113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -12130,7 +12133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -12150,7 +12153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -12170,7 +12173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>4</v>
       </c>
@@ -12193,7 +12196,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2</v>
       </c>
@@ -12213,7 +12216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -12233,7 +12236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>4</v>
       </c>
@@ -12253,7 +12256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -12273,7 +12276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -12299,7 +12302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6</v>
       </c>
@@ -12319,7 +12322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>5</v>
       </c>
@@ -12339,7 +12342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>4</v>
       </c>
@@ -12365,16 +12368,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05C0B68-CA48-4B87-8CAF-B4ACCFDA9873}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12412,7 +12415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>6</v>
       </c>
@@ -12432,7 +12435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12455,7 +12458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -12475,7 +12478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -12495,7 +12498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -12515,7 +12518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12535,7 +12538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -12555,7 +12558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -12575,7 +12578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -12595,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
@@ -12615,7 +12618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -12635,7 +12638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -12655,7 +12658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -12681,7 +12684,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -12701,7 +12704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2</v>
       </c>
@@ -12721,7 +12724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -12741,7 +12744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -12761,7 +12764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -12784,7 +12787,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -12807,7 +12810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -12827,7 +12830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -12847,7 +12850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -12867,7 +12870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -12887,7 +12890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>4</v>
       </c>
@@ -12907,7 +12910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -12927,7 +12930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>4</v>
       </c>
@@ -12950,7 +12953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -12970,7 +12973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -12996,16 +12999,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A403CCB-8394-4568-B447-BBAE0A5578FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13043,7 +13046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -13063,7 +13066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -13083,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -13103,7 +13106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -13123,7 +13126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -13143,7 +13146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -13163,7 +13166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -13183,7 +13186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -13203,7 +13206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -13223,7 +13226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -13243,7 +13246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
@@ -13266,7 +13269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -13286,7 +13289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5</v>
       </c>
@@ -13309,7 +13312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -13332,7 +13335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -13352,7 +13355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
@@ -13372,7 +13375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -13395,7 +13398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>4</v>
       </c>
@@ -13415,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -13435,7 +13438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -13455,7 +13458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>4</v>
       </c>
@@ -13475,7 +13478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -13495,7 +13498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -13515,7 +13518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
@@ -13535,7 +13538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>4</v>
       </c>
@@ -13555,7 +13558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -13575,7 +13578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5</v>
       </c>
@@ -13595,7 +13598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -13615,7 +13618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>4</v>
       </c>
@@ -13638,7 +13641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>5</v>
       </c>
@@ -13658,7 +13661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>6</v>
       </c>
@@ -13678,7 +13681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -13698,7 +13701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>5</v>
       </c>
@@ -13718,7 +13721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>3</v>
       </c>
@@ -13738,7 +13741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>5</v>
       </c>
@@ -13758,7 +13761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>4</v>
       </c>
@@ -13784,16 +13787,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C7586B-C799-467D-A237-64C045A098C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13831,7 +13834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>5</v>
       </c>
@@ -13851,7 +13854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13871,7 +13874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -13891,7 +13894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -13911,7 +13914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -13931,7 +13934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13951,7 +13954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -13971,7 +13974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4</v>
       </c>
@@ -13991,7 +13994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -14014,7 +14017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5</v>
       </c>
@@ -14037,7 +14040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>4</v>
       </c>
@@ -14057,7 +14060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -14077,7 +14080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -14097,7 +14100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -14117,7 +14120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -14137,7 +14140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -14157,7 +14160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -14183,7 +14186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -14206,7 +14209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -14226,7 +14229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -14246,7 +14249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -14266,7 +14269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -14286,7 +14289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -14306,7 +14309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2</v>
       </c>
@@ -14326,7 +14329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>0</v>
       </c>
@@ -14346,7 +14349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -14366,7 +14369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -14386,7 +14389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -14406,7 +14409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>3</v>
       </c>
@@ -14429,7 +14432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>2</v>
       </c>
@@ -14455,16 +14458,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B79339-ABA6-45D9-94B6-E119C3E8CF3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14502,7 +14505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -14522,7 +14525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -14542,7 +14545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -14562,7 +14565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -14582,7 +14585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14602,7 +14605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -14622,7 +14625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -14642,7 +14645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -14662,7 +14665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -14682,7 +14685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -14702,7 +14705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
@@ -14722,7 +14725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5</v>
       </c>
@@ -14745,7 +14748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -14765,7 +14768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -14785,7 +14788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>4</v>
       </c>
@@ -14805,7 +14808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4</v>
       </c>
@@ -14825,7 +14828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -14845,7 +14848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5</v>
       </c>
@@ -14865,7 +14868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>5</v>
       </c>
@@ -14885,7 +14888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -14905,7 +14908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -14928,7 +14931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>4</v>
       </c>
@@ -14948,7 +14951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -14968,7 +14971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
@@ -14988,7 +14991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>4</v>
       </c>
@@ -15008,7 +15011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -15028,7 +15031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -15048,7 +15051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -15068,7 +15071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>3</v>
       </c>
@@ -15088,7 +15091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>5</v>
       </c>
@@ -15108,7 +15111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>4</v>
       </c>
@@ -15128,7 +15131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>6</v>
       </c>
@@ -15148,7 +15151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>2</v>
       </c>
@@ -15168,7 +15171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>4</v>
       </c>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/dartsense/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="816" firstSheet="8" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="8" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -31,8 +31,8 @@
     <sheet name="2017-12-22" sheetId="46" r:id="rId17"/>
     <sheet name="2018-01-05" sheetId="47" r:id="rId18"/>
     <sheet name="2018-01-12" sheetId="48" r:id="rId19"/>
-    <sheet name="2018-01-17" sheetId="49" r:id="rId20"/>
-    <sheet name="2018-01-24" sheetId="50" r:id="rId21"/>
+    <sheet name="2018-01-19" sheetId="49" r:id="rId20"/>
+    <sheet name="2018-01-26" sheetId="50" r:id="rId21"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -495,16 +495,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -542,7 +542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -562,7 +562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -582,7 +582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -605,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -708,7 +708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -728,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -808,7 +808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -828,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -848,7 +848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -868,7 +868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -888,7 +888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -908,7 +908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -951,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -971,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -991,7 +991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1200,16 +1200,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1908,16 +1908,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2570,16 +2570,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -3275,16 +3275,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3986,16 +3986,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
@@ -4700,16 +4700,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -5334,16 +5334,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>6</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -6076,16 +6076,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -6426,7 +6426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -6681,7 +6681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -6830,16 +6830,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -7621,16 +7621,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -8329,16 +8329,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -8602,7 +8602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -8951,16 +8951,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -9444,7 +9444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -9613,16 +9613,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -9783,7 +9783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -10155,7 +10155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -10201,16 +10201,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10394,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -10457,7 +10457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -10643,7 +10643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -10958,16 +10958,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11005,7 +11005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -11025,7 +11025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -11245,7 +11245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -11325,7 +11325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -11465,7 +11465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -11594,7 +11594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -11663,16 +11663,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
@@ -12030,7 +12030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -12342,7 +12342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -12368,16 +12368,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -12658,7 +12658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -12787,7 +12787,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -12930,7 +12930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -12999,16 +12999,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -13106,7 +13106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -13206,7 +13206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -13269,7 +13269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -13312,7 +13312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -13335,7 +13335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -13355,7 +13355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -13375,7 +13375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -13438,7 +13438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -13458,7 +13458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -13478,7 +13478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -13558,7 +13558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -13598,7 +13598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -13661,7 +13661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -13701,7 +13701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -13761,7 +13761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -13787,16 +13787,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13834,7 +13834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -13854,7 +13854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13954,7 +13954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -13974,7 +13974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -14080,7 +14080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -14140,7 +14140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -14186,7 +14186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -14209,7 +14209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -14249,7 +14249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -14269,7 +14269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -14289,7 +14289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -14309,7 +14309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -14349,7 +14349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -14369,7 +14369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -14389,7 +14389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -14409,7 +14409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -14432,7 +14432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -14458,16 +14458,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14505,7 +14505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -14525,7 +14525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -14545,7 +14545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -14565,7 +14565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -14665,7 +14665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -14685,7 +14685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -14725,7 +14725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -14808,7 +14808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -14848,7 +14848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -14931,7 +14931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -14951,7 +14951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -15011,7 +15011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -15031,7 +15031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -15091,7 +15091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -15131,7 +15131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -15151,7 +15151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -15171,7 +15171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/dartsense/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="8" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="816" firstSheet="8" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -33,13 +33,14 @@
     <sheet name="2018-01-12" sheetId="48" r:id="rId19"/>
     <sheet name="2018-01-19" sheetId="49" r:id="rId20"/>
     <sheet name="2018-01-26" sheetId="50" r:id="rId21"/>
+    <sheet name="2018-02-02" sheetId="51" r:id="rId22"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="37">
   <si>
     <t>Baan</t>
   </si>
@@ -144,6 +145,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Atto</t>
   </si>
 </sst>
 </file>
@@ -502,9 +509,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -542,7 +549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>6</v>
       </c>
@@ -562,7 +569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -582,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -605,7 +612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -625,7 +632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -648,7 +655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -668,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -688,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -708,7 +715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -728,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -748,7 +755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -768,7 +775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5</v>
       </c>
@@ -788,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -808,7 +815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -828,7 +835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -848,7 +855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -868,7 +875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -888,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5</v>
       </c>
@@ -908,7 +915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>5</v>
       </c>
@@ -928,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -951,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -971,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -991,7 +998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1011,7 +1018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1031,7 +1038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1051,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1071,7 +1078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1091,7 +1098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5</v>
       </c>
@@ -1111,7 +1118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1131,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1151,7 +1158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1171,7 +1178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1207,9 +1214,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +1254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>4</v>
       </c>
@@ -1267,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1287,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1307,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1327,7 +1334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1350,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1370,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1393,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1413,7 +1420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1433,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1453,7 +1460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1473,7 +1480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1493,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1513,7 +1520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1533,7 +1540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1553,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1573,7 +1580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1593,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1613,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1633,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1653,7 +1660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1673,7 +1680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1696,7 +1703,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1716,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1736,7 +1743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1756,7 +1763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1776,7 +1783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1796,7 +1803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>6</v>
       </c>
@@ -1816,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1836,7 +1843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1859,7 +1866,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1882,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1915,9 +1922,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1955,7 +1962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1975,7 +1982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1995,7 +2002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2015,7 +2022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2035,7 +2042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2055,7 +2062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2075,7 +2082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2095,7 +2102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2115,7 +2122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2135,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2155,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -2178,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2198,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2218,7 +2225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2238,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2258,7 +2265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2278,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2298,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2318,7 +2325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2338,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2358,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2381,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2401,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2421,7 +2428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2441,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2461,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2481,7 +2488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -2501,7 +2508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2521,7 +2528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>5</v>
       </c>
@@ -2541,7 +2548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2577,9 +2584,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2617,7 +2624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2637,7 +2644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -2657,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2677,7 +2684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2697,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2717,7 +2724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2737,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2757,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2777,7 +2784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2797,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2817,7 +2824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2837,7 +2844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2857,7 +2864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2877,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2900,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2920,7 +2927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2940,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2960,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2980,7 +2987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3000,7 +3007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3020,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3046,7 +3053,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3066,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3086,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3106,7 +3113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2</v>
       </c>
@@ -3126,7 +3133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3146,7 +3153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5</v>
       </c>
@@ -3169,7 +3176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3189,7 +3196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3209,7 +3216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>5</v>
       </c>
@@ -3229,7 +3236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3249,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>6</v>
       </c>
@@ -3282,9 +3289,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3322,7 +3329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -3342,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -3362,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3382,7 +3389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3402,7 +3409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3422,7 +3429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3442,7 +3449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3462,7 +3469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -3482,7 +3489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3502,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3522,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3545,7 +3552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -3565,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -3591,7 +3598,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3614,7 +3621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>4</v>
       </c>
@@ -3634,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>6</v>
       </c>
@@ -3654,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -3674,7 +3681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3694,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3714,7 +3721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3734,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3754,7 +3761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6</v>
       </c>
@@ -3774,7 +3781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3797,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3817,7 +3824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -3837,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3860,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3880,7 +3887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>6</v>
       </c>
@@ -3900,7 +3907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3920,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3940,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>6</v>
       </c>
@@ -3960,7 +3967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3993,9 +4000,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4033,7 +4040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4053,7 +4060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4073,7 +4080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -4093,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4113,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4133,7 +4140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4153,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -4173,7 +4180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4196,7 +4203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4216,7 +4223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4236,7 +4243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4256,7 +4263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4276,7 +4283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>4</v>
       </c>
@@ -4299,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -4319,7 +4326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -4339,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4362,7 +4369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -4382,7 +4389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -4402,7 +4409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -4422,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -4442,7 +4449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>2</v>
       </c>
@@ -4462,7 +4469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -4485,7 +4492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>5</v>
       </c>
@@ -4505,7 +4512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -4528,7 +4535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2</v>
       </c>
@@ -4548,7 +4555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>5</v>
       </c>
@@ -4568,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -4591,7 +4598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4611,7 +4618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>4</v>
       </c>
@@ -4631,7 +4638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6</v>
       </c>
@@ -4651,7 +4658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4674,7 +4681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>5</v>
       </c>
@@ -4707,9 +4714,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4747,7 +4754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4767,7 +4774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -4787,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4810,7 +4817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4830,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4850,7 +4857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4873,7 +4880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4896,7 +4903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4916,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4936,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4959,7 +4966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4979,7 +4986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -5005,7 +5012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5025,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -5045,7 +5052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5065,7 +5072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
@@ -5085,7 +5092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5108,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -5128,7 +5135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -5148,7 +5155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5168,7 +5175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5188,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5208,7 +5215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5228,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -5248,7 +5255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -5268,7 +5275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -5288,7 +5295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -5308,7 +5315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -5341,9 +5348,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5381,7 +5388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>6</v>
       </c>
@@ -5401,7 +5408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5421,7 +5428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -5441,7 +5448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -5461,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5481,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5501,7 +5508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5521,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5541,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4</v>
       </c>
@@ -5561,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
@@ -5581,7 +5588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -5601,7 +5608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -5621,7 +5628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5644,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -5664,7 +5671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5684,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4</v>
       </c>
@@ -5704,7 +5711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -5727,7 +5734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -5747,7 +5754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>4</v>
       </c>
@@ -5767,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -5787,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -5807,7 +5814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5827,7 +5834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5847,7 +5854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>4</v>
       </c>
@@ -5870,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -5890,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>4</v>
       </c>
@@ -5910,7 +5917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5</v>
       </c>
@@ -5930,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>4</v>
       </c>
@@ -5950,7 +5957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>5</v>
       </c>
@@ -5970,7 +5977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6</v>
       </c>
@@ -5990,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3</v>
       </c>
@@ -6010,7 +6017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>5</v>
       </c>
@@ -6030,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>6</v>
       </c>
@@ -6050,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>4</v>
       </c>
@@ -6083,9 +6090,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6123,7 +6130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>5</v>
       </c>
@@ -6143,7 +6150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -6163,7 +6170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6183,7 +6190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -6203,7 +6210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6223,7 +6230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6243,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -6263,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2</v>
       </c>
@@ -6283,7 +6290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -6303,7 +6310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -6323,7 +6330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -6346,7 +6353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -6366,7 +6373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5</v>
       </c>
@@ -6386,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -6406,7 +6413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2</v>
       </c>
@@ -6426,7 +6433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -6449,7 +6456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -6472,7 +6479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5</v>
       </c>
@@ -6492,7 +6499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2</v>
       </c>
@@ -6512,7 +6519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -6532,7 +6539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -6552,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -6575,7 +6582,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -6598,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -6618,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2</v>
       </c>
@@ -6638,7 +6645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -6661,7 +6668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -6681,7 +6688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5</v>
       </c>
@@ -6704,7 +6711,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2</v>
       </c>
@@ -6724,7 +6731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>5</v>
       </c>
@@ -6744,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>6</v>
       </c>
@@ -6764,7 +6771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -6784,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>5</v>
       </c>
@@ -6804,7 +6811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>4</v>
       </c>
@@ -6837,9 +6844,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6877,7 +6884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>6</v>
       </c>
@@ -6897,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>5</v>
       </c>
@@ -6917,7 +6924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -6937,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6957,7 +6964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6977,7 +6984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6997,7 +7004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7017,7 +7024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -7037,7 +7044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7057,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -7077,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
@@ -7097,7 +7104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -7117,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7137,7 +7144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -7157,7 +7164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5</v>
       </c>
@@ -7177,7 +7184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -7197,7 +7204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -7217,7 +7224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -7240,7 +7247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -7260,7 +7267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2</v>
       </c>
@@ -7283,7 +7290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -7303,7 +7310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -7323,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -7346,7 +7353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
@@ -7366,7 +7373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>5</v>
       </c>
@@ -7386,7 +7393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2</v>
       </c>
@@ -7406,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -7429,7 +7436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5</v>
       </c>
@@ -7449,7 +7456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>6</v>
       </c>
@@ -7472,7 +7479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>2</v>
       </c>
@@ -7492,7 +7499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>5</v>
       </c>
@@ -7512,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -7532,7 +7539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -7552,7 +7559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -7572,7 +7579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -7595,7 +7602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>3</v>
       </c>
@@ -7628,9 +7635,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7668,7 +7675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -7688,7 +7695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>5</v>
       </c>
@@ -7708,7 +7715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7728,7 +7735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -7748,7 +7755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7771,7 +7778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7791,7 +7798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7811,7 +7818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2</v>
       </c>
@@ -7831,7 +7838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4</v>
       </c>
@@ -7851,7 +7858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
@@ -7871,7 +7878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -7891,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5</v>
       </c>
@@ -7911,7 +7918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7934,7 +7941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -7954,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7974,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -7997,7 +8004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -8017,7 +8024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5</v>
       </c>
@@ -8037,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -8057,7 +8064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -8077,7 +8084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5</v>
       </c>
@@ -8097,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6</v>
       </c>
@@ -8117,7 +8124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -8137,7 +8144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
@@ -8157,7 +8164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -8177,7 +8184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>5</v>
       </c>
@@ -8200,7 +8207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3</v>
       </c>
@@ -8223,7 +8230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5</v>
       </c>
@@ -8243,7 +8250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>6</v>
       </c>
@@ -8263,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6</v>
       </c>
@@ -8283,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -8303,7 +8310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -8336,9 +8343,9 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8376,7 +8383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -8396,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -8416,7 +8423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -8436,7 +8443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8456,7 +8463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8476,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8496,7 +8503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8516,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -8536,7 +8543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -8559,7 +8566,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -8579,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
@@ -8602,7 +8609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>4</v>
       </c>
@@ -8622,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -8642,7 +8649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -8662,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5</v>
       </c>
@@ -8682,7 +8689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>6</v>
       </c>
@@ -8702,7 +8709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -8722,7 +8729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -8742,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -8762,7 +8769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -8785,7 +8792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -8805,7 +8812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6</v>
       </c>
@@ -8825,7 +8832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -8845,7 +8852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>5</v>
       </c>
@@ -8865,7 +8872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>4</v>
       </c>
@@ -8885,7 +8892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -8905,7 +8912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5</v>
       </c>
@@ -8925,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>4</v>
       </c>
@@ -8958,9 +8965,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8998,7 +9005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -9018,7 +9025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9038,7 +9045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -9058,7 +9065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -9078,7 +9085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9098,7 +9105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9118,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -9138,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -9158,7 +9165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -9178,7 +9185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -9198,7 +9205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9218,7 +9225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5</v>
       </c>
@@ -9238,7 +9245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -9261,7 +9268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -9281,7 +9288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>4</v>
       </c>
@@ -9301,7 +9308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4</v>
       </c>
@@ -9321,7 +9328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3</v>
       </c>
@@ -9344,7 +9351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -9364,7 +9371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>5</v>
       </c>
@@ -9384,7 +9391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -9404,7 +9411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>4</v>
       </c>
@@ -9424,7 +9431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -9444,7 +9451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -9467,7 +9474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>5</v>
       </c>
@@ -9487,7 +9494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>5</v>
       </c>
@@ -9507,7 +9514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -9527,7 +9534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -9547,7 +9554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2</v>
       </c>
@@ -9567,7 +9574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>6</v>
       </c>
@@ -9587,7 +9594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -9616,13 +9623,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9660,7 +9667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -9680,7 +9687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -9700,7 +9707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9720,7 +9727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9740,7 +9747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9763,7 +9770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -9783,7 +9790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -9803,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9823,7 +9830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4</v>
       </c>
@@ -9846,7 +9853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -9869,7 +9876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9889,7 +9896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -9909,7 +9916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -9929,7 +9936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -9952,7 +9959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -9972,7 +9979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -9992,7 +9999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -10012,7 +10019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -10035,7 +10042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -10055,7 +10062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2</v>
       </c>
@@ -10075,7 +10082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -10095,7 +10102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -10115,7 +10122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -10135,7 +10142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>5</v>
       </c>
@@ -10155,7 +10162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -10175,7 +10182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2</v>
       </c>
@@ -10192,6 +10199,665 @@
         <v>2</v>
       </c>
       <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EEF49C-A6E9-3241-9A9D-FBBEA386F897}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
         <v>0</v>
       </c>
     </row>
@@ -10208,9 +10874,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10248,7 +10914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>4</v>
       </c>
@@ -10268,7 +10934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>5</v>
       </c>
@@ -10291,7 +10957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -10314,7 +10980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10334,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10354,7 +11020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10374,7 +11040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10394,7 +11060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -10417,7 +11083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -10437,7 +11103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5</v>
       </c>
@@ -10457,7 +11123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>4</v>
       </c>
@@ -10477,7 +11143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -10497,7 +11163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -10517,7 +11183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -10537,7 +11203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>4</v>
       </c>
@@ -10560,7 +11226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>6</v>
       </c>
@@ -10583,7 +11249,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5</v>
       </c>
@@ -10603,7 +11269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>4</v>
       </c>
@@ -10623,7 +11289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -10643,7 +11309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -10663,7 +11329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -10683,7 +11349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -10703,7 +11369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>4</v>
       </c>
@@ -10723,7 +11389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -10743,7 +11409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -10763,7 +11429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -10783,7 +11449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3</v>
       </c>
@@ -10809,7 +11475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5</v>
       </c>
@@ -10829,7 +11495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>6</v>
       </c>
@@ -10849,7 +11515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6</v>
       </c>
@@ -10869,7 +11535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>4</v>
       </c>
@@ -10889,7 +11555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>4</v>
       </c>
@@ -10909,7 +11575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3</v>
       </c>
@@ -10929,7 +11595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -10965,9 +11631,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11005,7 +11671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>4</v>
       </c>
@@ -11025,7 +11691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>5</v>
       </c>
@@ -11045,7 +11711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -11065,7 +11731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11085,7 +11751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11105,7 +11771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -11125,7 +11791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11145,7 +11811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -11165,7 +11831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4</v>
       </c>
@@ -11185,7 +11851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -11205,7 +11871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -11225,7 +11891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5</v>
       </c>
@@ -11245,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -11265,7 +11931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -11285,7 +11951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -11305,7 +11971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
@@ -11325,7 +11991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -11345,7 +12011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -11365,7 +12031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>5</v>
       </c>
@@ -11385,7 +12051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -11405,7 +12071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5</v>
       </c>
@@ -11425,7 +12091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -11445,7 +12111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>5</v>
       </c>
@@ -11465,7 +12131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -11488,7 +12154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -11508,7 +12174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>5</v>
       </c>
@@ -11528,7 +12194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3</v>
       </c>
@@ -11551,7 +12217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>6</v>
       </c>
@@ -11574,7 +12240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>5</v>
       </c>
@@ -11594,7 +12260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>4</v>
       </c>
@@ -11614,7 +12280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>6</v>
       </c>
@@ -11634,7 +12300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -11670,9 +12336,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11710,7 +12376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -11730,7 +12396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -11750,7 +12416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -11770,7 +12436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -11790,7 +12456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -11810,7 +12476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11830,7 +12496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -11850,7 +12516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4</v>
       </c>
@@ -11870,7 +12536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4</v>
       </c>
@@ -11890,7 +12556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -11910,7 +12576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>4</v>
       </c>
@@ -11930,7 +12596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -11950,7 +12616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>4</v>
       </c>
@@ -11970,7 +12636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -11990,7 +12656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -12010,7 +12676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>6</v>
       </c>
@@ -12030,7 +12696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -12050,7 +12716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -12073,7 +12739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -12093,7 +12759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2</v>
       </c>
@@ -12113,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -12133,7 +12799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -12153,7 +12819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -12173,7 +12839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>4</v>
       </c>
@@ -12196,7 +12862,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2</v>
       </c>
@@ -12216,7 +12882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -12236,7 +12902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>4</v>
       </c>
@@ -12256,7 +12922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -12276,7 +12942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -12302,7 +12968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6</v>
       </c>
@@ -12322,7 +12988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>5</v>
       </c>
@@ -12342,7 +13008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>4</v>
       </c>
@@ -12375,9 +13041,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12415,7 +13081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>6</v>
       </c>
@@ -12435,7 +13101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12458,7 +13124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -12478,7 +13144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -12498,7 +13164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -12518,7 +13184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12538,7 +13204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -12558,7 +13224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -12578,7 +13244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -12598,7 +13264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
@@ -12618,7 +13284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -12638,7 +13304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -12658,7 +13324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -12684,7 +13350,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -12704,7 +13370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2</v>
       </c>
@@ -12724,7 +13390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -12744,7 +13410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -12764,7 +13430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -12787,7 +13453,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -12810,7 +13476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -12830,7 +13496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -12850,7 +13516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -12870,7 +13536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -12890,7 +13556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>4</v>
       </c>
@@ -12910,7 +13576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -12930,7 +13596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>4</v>
       </c>
@@ -12953,7 +13619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -12973,7 +13639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -13006,9 +13672,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13046,7 +13712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -13066,7 +13732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -13086,7 +13752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -13106,7 +13772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -13126,7 +13792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -13146,7 +13812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -13166,7 +13832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -13186,7 +13852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -13206,7 +13872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -13226,7 +13892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -13246,7 +13912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
@@ -13269,7 +13935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -13289,7 +13955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5</v>
       </c>
@@ -13312,7 +13978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -13335,7 +14001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -13355,7 +14021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
@@ -13375,7 +14041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -13398,7 +14064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>4</v>
       </c>
@@ -13418,7 +14084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -13438,7 +14104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -13458,7 +14124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>4</v>
       </c>
@@ -13478,7 +14144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -13498,7 +14164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -13518,7 +14184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
@@ -13538,7 +14204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>4</v>
       </c>
@@ -13558,7 +14224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -13578,7 +14244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5</v>
       </c>
@@ -13598,7 +14264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -13618,7 +14284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>4</v>
       </c>
@@ -13641,7 +14307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>5</v>
       </c>
@@ -13661,7 +14327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>6</v>
       </c>
@@ -13681,7 +14347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -13701,7 +14367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>5</v>
       </c>
@@ -13721,7 +14387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>3</v>
       </c>
@@ -13741,7 +14407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>5</v>
       </c>
@@ -13761,7 +14427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>4</v>
       </c>
@@ -13794,9 +14460,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13834,7 +14500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>5</v>
       </c>
@@ -13854,7 +14520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13874,7 +14540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -13894,7 +14560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -13914,7 +14580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -13934,7 +14600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13954,7 +14620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -13974,7 +14640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4</v>
       </c>
@@ -13994,7 +14660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -14017,7 +14683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5</v>
       </c>
@@ -14040,7 +14706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>4</v>
       </c>
@@ -14060,7 +14726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -14080,7 +14746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -14100,7 +14766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -14120,7 +14786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -14140,7 +14806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -14160,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -14186,7 +14852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -14209,7 +14875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -14229,7 +14895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -14249,7 +14915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -14269,7 +14935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -14289,7 +14955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -14309,7 +14975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2</v>
       </c>
@@ -14329,7 +14995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>0</v>
       </c>
@@ -14349,7 +15015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -14369,7 +15035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -14389,7 +15055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -14409,7 +15075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>3</v>
       </c>
@@ -14432,7 +15098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>2</v>
       </c>
@@ -14465,9 +15131,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14505,7 +15171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -14525,7 +15191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -14545,7 +15211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -14565,7 +15231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -14585,7 +15251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14605,7 +15271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -14625,7 +15291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -14645,7 +15311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -14665,7 +15331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -14685,7 +15351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -14705,7 +15371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
@@ -14725,7 +15391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5</v>
       </c>
@@ -14748,7 +15414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -14768,7 +15434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -14788,7 +15454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>4</v>
       </c>
@@ -14808,7 +15474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4</v>
       </c>
@@ -14828,7 +15494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -14848,7 +15514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5</v>
       </c>
@@ -14868,7 +15534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>5</v>
       </c>
@@ -14888,7 +15554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -14908,7 +15574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -14931,7 +15597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>4</v>
       </c>
@@ -14951,7 +15617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -14971,7 +15637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
@@ -14991,7 +15657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>4</v>
       </c>
@@ -15011,7 +15677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -15031,7 +15697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -15051,7 +15717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -15071,7 +15737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>3</v>
       </c>
@@ -15091,7 +15757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>5</v>
       </c>
@@ -15111,7 +15777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>4</v>
       </c>
@@ -15131,7 +15797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>6</v>
       </c>
@@ -15151,7 +15817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>2</v>
       </c>
@@ -15171,7 +15837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>4</v>
       </c>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/dartsense/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/bas/src/dartsense/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="36">
   <si>
     <t>Baan</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>Harry</t>
-  </si>
-  <si>
-    <t>Atto</t>
   </si>
 </sst>
 </file>
@@ -10212,7 +10209,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10529,7 +10526,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/bas/src/dartsense/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="816" firstSheet="8" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="9" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -34,13 +34,15 @@
     <sheet name="2018-01-19" sheetId="49" r:id="rId20"/>
     <sheet name="2018-01-26" sheetId="50" r:id="rId21"/>
     <sheet name="2018-02-02" sheetId="51" r:id="rId22"/>
+    <sheet name="2018-02-09" sheetId="52" r:id="rId23"/>
+    <sheet name="2018-02-16" sheetId="53" r:id="rId24"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="36">
   <si>
     <t>Baan</t>
   </si>
@@ -506,9 +508,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -546,7 +548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -566,7 +568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -586,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -609,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -629,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -652,7 +654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -672,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -692,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -712,7 +714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -732,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -752,7 +754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -772,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -792,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -812,7 +814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -832,7 +834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -852,7 +854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -872,7 +874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -892,7 +894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -912,7 +914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -932,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -955,7 +957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -975,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -995,7 +997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1015,7 +1017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1035,7 +1037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1055,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1075,7 +1077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1095,7 +1097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -1115,7 +1117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1135,7 +1137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1155,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1175,7 +1177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1211,9 +1213,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -1271,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1291,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1311,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1331,7 +1333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1354,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1374,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1397,7 +1399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1417,7 +1419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1437,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1477,7 +1479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1517,7 +1519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1537,7 +1539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1557,7 +1559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1577,7 +1579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1597,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1617,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1637,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1657,7 +1659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1677,7 +1679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1700,7 +1702,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1720,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1740,7 +1742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1760,7 +1762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1780,7 +1782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1800,7 +1802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6</v>
       </c>
@@ -1820,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1840,7 +1842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1863,7 +1865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1886,7 +1888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1919,9 +1921,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1959,7 +1961,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1979,7 +1981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1999,7 +2001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2019,7 +2021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2039,7 +2041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2059,7 +2061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2079,7 +2081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2099,7 +2101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2119,7 +2121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2139,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2159,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -2182,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2202,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2222,7 +2224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2242,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2262,7 +2264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2282,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2302,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2322,7 +2324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2342,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2362,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2385,7 +2387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2405,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2425,7 +2427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2445,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2465,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2485,7 +2487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -2505,7 +2507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2525,7 +2527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -2545,7 +2547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2581,9 +2583,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2621,7 +2623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2641,7 +2643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -2661,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2681,7 +2683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2701,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2721,7 +2723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2741,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2781,7 +2783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2801,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2821,7 +2823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2841,7 +2843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2861,7 +2863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2881,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2904,7 +2906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2924,7 +2926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2944,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2964,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2984,7 +2986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3004,7 +3006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3024,7 +3026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3050,7 +3052,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3070,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3090,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3110,7 +3112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -3130,7 +3132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3150,7 +3152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -3173,7 +3175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3193,7 +3195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3213,7 +3215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -3233,7 +3235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3253,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -3286,9 +3288,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3326,7 +3328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -3346,7 +3348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -3366,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3386,7 +3388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3406,7 +3408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3426,7 +3428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3446,7 +3448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3466,7 +3468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -3486,7 +3488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3506,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3526,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3549,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -3595,7 +3597,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3618,7 +3620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -3638,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
@@ -3658,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -3678,7 +3680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3698,7 +3700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3718,7 +3720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3738,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3758,7 +3760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -3778,7 +3780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3801,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3821,7 +3823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -3841,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3864,7 +3866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3884,7 +3886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6</v>
       </c>
@@ -3904,7 +3906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3924,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3944,7 +3946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -3964,7 +3966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3997,9 +3999,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4037,7 +4039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4057,7 +4059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4077,7 +4079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -4097,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4117,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4137,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4157,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -4177,7 +4179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4200,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4220,7 +4222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4240,7 +4242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4260,7 +4262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4280,7 +4282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -4303,7 +4305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -4323,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -4343,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4366,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -4386,7 +4388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -4406,7 +4408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -4426,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -4446,7 +4448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -4466,7 +4468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -4489,7 +4491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -4509,7 +4511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -4532,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -4552,7 +4554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
@@ -4572,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -4595,7 +4597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4615,7 +4617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -4635,7 +4637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -4655,7 +4657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4678,7 +4680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
@@ -4711,9 +4713,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4751,7 +4753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4771,7 +4773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -4791,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4814,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4834,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4854,7 +4856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4877,7 +4879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4900,7 +4902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4920,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4940,7 +4942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4963,7 +4965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4983,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -5009,7 +5011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5029,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -5049,7 +5051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5069,7 +5071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -5089,7 +5091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5112,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -5132,7 +5134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -5152,7 +5154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5172,7 +5174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5192,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5212,7 +5214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5232,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -5252,7 +5254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -5272,7 +5274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -5292,7 +5294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -5312,7 +5314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -5345,9 +5347,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5385,7 +5387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -5405,7 +5407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5425,7 +5427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -5445,7 +5447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -5465,7 +5467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5485,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5505,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5525,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5545,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -5565,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -5585,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -5605,7 +5607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -5625,7 +5627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5648,7 +5650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -5668,7 +5670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5688,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -5708,7 +5710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -5731,7 +5733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -5751,7 +5753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -5771,7 +5773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -5791,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -5811,7 +5813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5831,7 +5833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5851,7 +5853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -5874,7 +5876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -5894,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -5914,7 +5916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -5934,7 +5936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -5954,7 +5956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -5974,7 +5976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -5994,7 +5996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -6014,7 +6016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
@@ -6034,7 +6036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>6</v>
       </c>
@@ -6054,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -6087,9 +6089,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6127,7 +6129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -6147,7 +6149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -6167,7 +6169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6187,7 +6189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -6207,7 +6209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6227,7 +6229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6247,7 +6249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -6267,7 +6269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -6287,7 +6289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -6307,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -6327,7 +6329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -6350,7 +6352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -6370,7 +6372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -6390,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -6410,7 +6412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -6430,7 +6432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -6453,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -6476,7 +6478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -6496,7 +6498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -6516,7 +6518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -6536,7 +6538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -6556,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -6579,7 +6581,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -6602,7 +6604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -6622,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -6642,7 +6644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -6665,7 +6667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -6685,7 +6687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -6708,7 +6710,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -6728,7 +6730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -6748,7 +6750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -6768,7 +6770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -6788,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5</v>
       </c>
@@ -6808,7 +6810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -6841,9 +6843,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6881,7 +6883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -6901,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -6921,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -6941,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6961,7 +6963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6981,7 +6983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7001,7 +7003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7021,7 +7023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -7041,7 +7043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7061,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -7081,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -7101,7 +7103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -7121,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7141,7 +7143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -7161,7 +7163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
@@ -7181,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -7201,7 +7203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -7221,7 +7223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -7244,7 +7246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -7264,7 +7266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -7287,7 +7289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -7307,7 +7309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -7327,7 +7329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -7350,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -7370,7 +7372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -7390,7 +7392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -7410,7 +7412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -7433,7 +7435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -7453,7 +7455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -7476,7 +7478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -7496,7 +7498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -7516,7 +7518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -7536,7 +7538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -7556,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -7576,7 +7578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -7599,7 +7601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -7632,9 +7634,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7672,7 +7674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -7692,7 +7694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -7712,7 +7714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7732,7 +7734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -7752,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7775,7 +7777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7795,7 +7797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7815,7 +7817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -7835,7 +7837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -7855,7 +7857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -7875,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -7895,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -7915,7 +7917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7938,7 +7940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -7958,7 +7960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7978,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -8001,7 +8003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -8021,7 +8023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -8041,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -8061,7 +8063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -8081,7 +8083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -8101,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -8121,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -8141,7 +8143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -8161,7 +8163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -8181,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
@@ -8204,7 +8206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -8227,7 +8229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -8247,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -8267,7 +8269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -8287,7 +8289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -8307,7 +8309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -8340,9 +8342,9 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8380,7 +8382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -8400,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -8420,7 +8422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -8440,7 +8442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8460,7 +8462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8480,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8500,7 +8502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8520,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -8540,7 +8542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -8563,7 +8565,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -8583,7 +8585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -8606,7 +8608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4</v>
       </c>
@@ -8626,7 +8628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -8646,7 +8648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -8666,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
@@ -8686,7 +8688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
@@ -8706,7 +8708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -8726,7 +8728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -8746,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -8766,7 +8768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -8789,7 +8791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -8809,7 +8811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -8829,7 +8831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -8849,7 +8851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -8869,7 +8871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -8889,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -8909,7 +8911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -8929,7 +8931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -8962,9 +8964,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9002,7 +9004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -9022,7 +9024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9042,7 +9044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -9062,7 +9064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -9082,7 +9084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9102,7 +9104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9122,7 +9124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -9142,7 +9144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -9162,7 +9164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -9182,7 +9184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -9202,7 +9204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9222,7 +9224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -9242,7 +9244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -9265,7 +9267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -9285,7 +9287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -9305,7 +9307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -9325,7 +9327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -9348,7 +9350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -9368,7 +9370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -9388,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -9408,7 +9410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -9428,7 +9430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -9448,7 +9450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -9471,7 +9473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -9491,7 +9493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -9511,7 +9513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -9531,7 +9533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -9551,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -9571,7 +9573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -9591,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -9624,9 +9626,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9664,7 +9666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -9684,7 +9686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -9704,7 +9706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9724,7 +9726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9744,7 +9746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9767,7 +9769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -9787,7 +9789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -9807,7 +9809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9827,7 +9829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -9850,7 +9852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -9873,7 +9875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9893,7 +9895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -9913,7 +9915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -9933,7 +9935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -9956,7 +9958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -9976,7 +9978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -9996,7 +9998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -10016,7 +10018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -10039,7 +10041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -10059,7 +10061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -10079,7 +10081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -10099,7 +10101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -10119,7 +10121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -10139,7 +10141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -10159,7 +10161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -10179,7 +10181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -10208,13 +10210,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EEF49C-A6E9-3241-9A9D-FBBEA386F897}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10252,7 +10254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -10272,7 +10274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -10292,7 +10294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10312,7 +10314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -10332,7 +10334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10352,7 +10354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -10372,7 +10374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10392,7 +10394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -10412,7 +10414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -10432,7 +10434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -10455,7 +10457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -10475,7 +10477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -10495,7 +10497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -10515,7 +10517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -10535,7 +10537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -10555,7 +10557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -10575,7 +10577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -10595,7 +10597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -10615,7 +10617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -10635,7 +10637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -10655,7 +10657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -10675,7 +10677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -10695,7 +10697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -10715,7 +10717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -10735,7 +10737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -10758,7 +10760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
@@ -10778,7 +10780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -10798,7 +10800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -10818,7 +10820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -10838,7 +10840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -10856,6 +10858,1465 @@
       </c>
       <c r="F31">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C19E037-F182-42C0-9765-7823AC124848}">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19790BAB-70EE-45B9-AF59-C63728BEE507}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -10871,9 +12332,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10911,7 +12372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -10931,7 +12392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -10954,7 +12415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -10977,7 +12438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10997,7 +12458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -11017,7 +12478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -11037,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11057,7 +12518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -11080,7 +12541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -11100,7 +12561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -11120,7 +12581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -11140,7 +12601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -11160,7 +12621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -11180,7 +12641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -11200,7 +12661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -11223,7 +12684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
@@ -11246,7 +12707,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -11266,7 +12727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4</v>
       </c>
@@ -11286,7 +12747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -11306,7 +12767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -11326,7 +12787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -11346,7 +12807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -11366,7 +12827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
@@ -11386,7 +12847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -11406,7 +12867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -11426,7 +12887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -11446,7 +12907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -11472,7 +12933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -11492,7 +12953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -11512,7 +12973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -11532,7 +12993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -11552,7 +13013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -11572,7 +13033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -11592,7 +13053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -11628,9 +13089,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11668,7 +13129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -11688,7 +13149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -11708,7 +13169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -11728,7 +13189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11748,7 +13209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11768,7 +13229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -11788,7 +13249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11808,7 +13269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -11828,7 +13289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -11848,7 +13309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -11868,7 +13329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -11888,7 +13349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -11908,7 +13369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -11928,7 +13389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -11948,7 +13409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -11968,7 +13429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -11988,7 +13449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -12008,7 +13469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -12028,7 +13489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -12048,7 +13509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -12068,7 +13529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -12088,7 +13549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -12108,7 +13569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -12128,7 +13589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -12151,7 +13612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -12171,7 +13632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
@@ -12191,7 +13652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -12214,7 +13675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6</v>
       </c>
@@ -12237,7 +13698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -12257,7 +13718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -12277,7 +13738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -12297,7 +13758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -12333,9 +13794,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12373,7 +13834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -12393,7 +13854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -12413,7 +13874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -12433,7 +13894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -12453,7 +13914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -12473,7 +13934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -12493,7 +13954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -12513,7 +13974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -12533,7 +13994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -12553,7 +14014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -12573,7 +14034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -12593,7 +14054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -12613,7 +14074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -12633,7 +14094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -12653,7 +14114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -12673,7 +14134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
@@ -12693,7 +14154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -12713,7 +14174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -12736,7 +14197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -12756,7 +14217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -12776,7 +14237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -12796,7 +14257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -12816,7 +14277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -12836,7 +14297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -12859,7 +14320,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -12879,7 +14340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -12899,7 +14360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -12919,7 +14380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -12939,7 +14400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -12965,7 +14426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -12985,7 +14446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -13005,7 +14466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -13038,9 +14499,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13078,7 +14539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -13098,7 +14559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13121,7 +14582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -13141,7 +14602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -13161,7 +14622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -13181,7 +14642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13201,7 +14662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -13221,7 +14682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -13241,7 +14702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -13261,7 +14722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -13281,7 +14742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -13301,7 +14762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -13321,7 +14782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -13347,7 +14808,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -13367,7 +14828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -13387,7 +14848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -13407,7 +14868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -13427,7 +14888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -13450,7 +14911,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -13473,7 +14934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -13493,7 +14954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -13513,7 +14974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -13533,7 +14994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -13553,7 +15014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -13573,7 +15034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -13593,7 +15054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -13616,7 +15077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -13636,7 +15097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -13669,9 +15130,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13709,7 +15170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -13729,7 +15190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -13749,7 +15210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -13769,7 +15230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -13789,7 +15250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -13809,7 +15270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -13829,7 +15290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -13849,7 +15310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -13869,7 +15330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -13889,7 +15350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -13909,7 +15370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -13932,7 +15393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -13952,7 +15413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -13975,7 +15436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -13998,7 +15459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -14018,7 +15479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -14038,7 +15499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -14061,7 +15522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4</v>
       </c>
@@ -14081,7 +15542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -14101,7 +15562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -14121,7 +15582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -14141,7 +15602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -14161,7 +15622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -14181,7 +15642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -14201,7 +15662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -14221,7 +15682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -14241,7 +15702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -14261,7 +15722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -14281,7 +15742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -14304,7 +15765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -14324,7 +15785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -14344,7 +15805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -14364,7 +15825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5</v>
       </c>
@@ -14384,7 +15845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -14404,7 +15865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -14424,7 +15885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -14457,9 +15918,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14497,7 +15958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -14517,7 +15978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14537,7 +15998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -14557,7 +16018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -14577,7 +16038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -14597,7 +16058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14617,7 +16078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -14637,7 +16098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -14657,7 +16118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -14680,7 +16141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -14703,7 +16164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -14723,7 +16184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -14743,7 +16204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -14763,7 +16224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -14783,7 +16244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -14803,7 +16264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -14823,7 +16284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -14849,7 +16310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -14872,7 +16333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -14892,7 +16353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -14912,7 +16373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -14932,7 +16393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -14952,7 +16413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -14972,7 +16433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -14992,7 +16453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -15012,7 +16473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -15032,7 +16493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -15052,7 +16513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -15072,7 +16533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -15095,7 +16556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -15128,9 +16589,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15168,7 +16629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -15188,7 +16649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -15208,7 +16669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -15228,7 +16689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -15248,7 +16709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15268,7 +16729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -15288,7 +16749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -15308,7 +16769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -15328,7 +16789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -15348,7 +16809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -15368,7 +16829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -15388,7 +16849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -15411,7 +16872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -15431,7 +16892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -15451,7 +16912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -15471,7 +16932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -15491,7 +16952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -15511,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -15531,7 +16992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -15551,7 +17012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -15571,7 +17032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -15594,7 +17055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -15614,7 +17075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -15634,7 +17095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -15654,7 +17115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -15674,7 +17135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -15694,7 +17155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -15714,7 +17175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -15734,7 +17195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -15754,7 +17215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -15774,7 +17235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -15794,7 +17255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -15814,7 +17275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -15834,7 +17295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="9" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="10" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -36,13 +36,14 @@
     <sheet name="2018-02-02" sheetId="51" r:id="rId22"/>
     <sheet name="2018-02-09" sheetId="52" r:id="rId23"/>
     <sheet name="2018-02-16" sheetId="53" r:id="rId24"/>
+    <sheet name="2018-02-23" sheetId="54" r:id="rId25"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="36">
   <si>
     <t>Baan</t>
   </si>
@@ -11654,8 +11655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19790BAB-70EE-45B9-AF59-C63728BEE507}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12316,6 +12317,800 @@
         <v>0</v>
       </c>
       <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95BB3D1-1464-4E87-92A3-5061C5CEDC8B}">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y35" sqref="Y35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
         <v>2</v>
       </c>
     </row>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/dartsense/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BD9BCE-8C6F-544E-9397-C27377EBB8B1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="10" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="816" firstSheet="11" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -37,13 +38,14 @@
     <sheet name="2018-02-09" sheetId="52" r:id="rId23"/>
     <sheet name="2018-02-16" sheetId="53" r:id="rId24"/>
     <sheet name="2018-02-23" sheetId="54" r:id="rId25"/>
+    <sheet name="2018-03-02" sheetId="55" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="37">
   <si>
     <t>Baan</t>
   </si>
@@ -151,6 +153,9 @@
   </si>
   <si>
     <t>Harry</t>
+  </si>
+  <si>
+    <t>Herni</t>
   </si>
 </sst>
 </file>
@@ -509,9 +514,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -549,7 +554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>6</v>
       </c>
@@ -569,7 +574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -589,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -612,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -632,7 +637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -655,7 +660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -675,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -695,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -715,7 +720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -735,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -755,7 +760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -775,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5</v>
       </c>
@@ -795,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -815,7 +820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -835,7 +840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -855,7 +860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -875,7 +880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -895,7 +900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5</v>
       </c>
@@ -915,7 +920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>5</v>
       </c>
@@ -935,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -958,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -978,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -998,7 +1003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1018,7 +1023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1038,7 +1043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1058,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1078,7 +1083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1098,7 +1103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5</v>
       </c>
@@ -1118,7 +1123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1138,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1158,7 +1163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1178,7 +1183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1214,9 +1219,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +1259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>4</v>
       </c>
@@ -1274,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1294,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1314,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1334,7 +1339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1357,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1377,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1400,7 +1405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1420,7 +1425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1440,7 +1445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1460,7 +1465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1480,7 +1485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1500,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1520,7 +1525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1540,7 +1545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1560,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1580,7 +1585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1600,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1620,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1640,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1660,7 +1665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1680,7 +1685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1703,7 +1708,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1723,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1743,7 +1748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1763,7 +1768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1783,7 +1788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1803,7 +1808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>6</v>
       </c>
@@ -1823,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1843,7 +1848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1866,7 +1871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1889,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1922,9 +1927,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1962,7 +1967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1982,7 +1987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2002,7 +2007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2022,7 +2027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2042,7 +2047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2062,7 +2067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2082,7 +2087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2102,7 +2107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2122,7 +2127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2142,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2162,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -2185,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2205,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2225,7 +2230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2245,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2265,7 +2270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2285,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2305,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2325,7 +2330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2345,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2365,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2388,7 +2393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2408,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2428,7 +2433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2448,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2468,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2488,7 +2493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -2508,7 +2513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2528,7 +2533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>5</v>
       </c>
@@ -2548,7 +2553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2584,9 +2589,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2624,7 +2629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2644,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -2664,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2684,7 +2689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2704,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2724,7 +2729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2744,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2764,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2784,7 +2789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2804,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2824,7 +2829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2844,7 +2849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2864,7 +2869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2884,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2907,7 +2912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2927,7 +2932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2947,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2967,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2987,7 +2992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3007,7 +3012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3027,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3053,7 +3058,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3073,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3093,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3113,7 +3118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2</v>
       </c>
@@ -3133,7 +3138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3153,7 +3158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5</v>
       </c>
@@ -3176,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3196,7 +3201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3216,7 +3221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>5</v>
       </c>
@@ -3236,7 +3241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3256,7 +3261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>6</v>
       </c>
@@ -3289,9 +3294,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3329,7 +3334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -3349,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -3369,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3389,7 +3394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3409,7 +3414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3429,7 +3434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3449,7 +3454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3469,7 +3474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -3489,7 +3494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3509,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3529,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3552,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -3572,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -3598,7 +3603,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3621,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>4</v>
       </c>
@@ -3641,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>6</v>
       </c>
@@ -3661,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -3681,7 +3686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3701,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3721,7 +3726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3741,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3761,7 +3766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6</v>
       </c>
@@ -3781,7 +3786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3804,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3824,7 +3829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -3844,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3867,7 +3872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3887,7 +3892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>6</v>
       </c>
@@ -3907,7 +3912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3927,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3947,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>6</v>
       </c>
@@ -3967,7 +3972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -4000,9 +4005,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4040,7 +4045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4060,7 +4065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4080,7 +4085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -4100,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4120,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4140,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4160,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -4180,7 +4185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4203,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4223,7 +4228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4243,7 +4248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4263,7 +4268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4283,7 +4288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>4</v>
       </c>
@@ -4306,7 +4311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -4326,7 +4331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -4346,7 +4351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4369,7 +4374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -4389,7 +4394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -4409,7 +4414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -4429,7 +4434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -4449,7 +4454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>2</v>
       </c>
@@ -4469,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -4492,7 +4497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>5</v>
       </c>
@@ -4512,7 +4517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -4535,7 +4540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2</v>
       </c>
@@ -4555,7 +4560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>5</v>
       </c>
@@ -4575,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -4598,7 +4603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4618,7 +4623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>4</v>
       </c>
@@ -4638,7 +4643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6</v>
       </c>
@@ -4658,7 +4663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4681,7 +4686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>5</v>
       </c>
@@ -4714,9 +4719,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4754,7 +4759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4774,7 +4779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -4794,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4817,7 +4822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4837,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4857,7 +4862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4880,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4903,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4923,7 +4928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4943,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4966,7 +4971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4986,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -5012,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5032,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -5052,7 +5057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5072,7 +5077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
@@ -5092,7 +5097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5115,7 +5120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -5135,7 +5140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -5155,7 +5160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5175,7 +5180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5195,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5215,7 +5220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5235,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -5255,7 +5260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -5275,7 +5280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -5295,7 +5300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -5315,7 +5320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -5348,9 +5353,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5388,7 +5393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>6</v>
       </c>
@@ -5408,7 +5413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5428,7 +5433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -5448,7 +5453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -5468,7 +5473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5488,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5508,7 +5513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5528,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5548,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4</v>
       </c>
@@ -5568,7 +5573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
@@ -5588,7 +5593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -5608,7 +5613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -5628,7 +5633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5651,7 +5656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -5671,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5691,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4</v>
       </c>
@@ -5711,7 +5716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -5734,7 +5739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -5754,7 +5759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>4</v>
       </c>
@@ -5774,7 +5779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -5794,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -5814,7 +5819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5834,7 +5839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5854,7 +5859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>4</v>
       </c>
@@ -5877,7 +5882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -5897,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>4</v>
       </c>
@@ -5917,7 +5922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5</v>
       </c>
@@ -5937,7 +5942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>4</v>
       </c>
@@ -5957,7 +5962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>5</v>
       </c>
@@ -5977,7 +5982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6</v>
       </c>
@@ -5997,7 +6002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3</v>
       </c>
@@ -6017,7 +6022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>5</v>
       </c>
@@ -6037,7 +6042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>6</v>
       </c>
@@ -6057,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>4</v>
       </c>
@@ -6090,9 +6095,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6130,7 +6135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>5</v>
       </c>
@@ -6150,7 +6155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -6170,7 +6175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6190,7 +6195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -6210,7 +6215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6230,7 +6235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6250,7 +6255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -6270,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2</v>
       </c>
@@ -6290,7 +6295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -6310,7 +6315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -6330,7 +6335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -6353,7 +6358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -6373,7 +6378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5</v>
       </c>
@@ -6393,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -6413,7 +6418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2</v>
       </c>
@@ -6433,7 +6438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -6456,7 +6461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -6479,7 +6484,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5</v>
       </c>
@@ -6499,7 +6504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2</v>
       </c>
@@ -6519,7 +6524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -6539,7 +6544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -6559,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -6582,7 +6587,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -6605,7 +6610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -6625,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2</v>
       </c>
@@ -6645,7 +6650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -6668,7 +6673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -6688,7 +6693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5</v>
       </c>
@@ -6711,7 +6716,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2</v>
       </c>
@@ -6731,7 +6736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>5</v>
       </c>
@@ -6751,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>6</v>
       </c>
@@ -6771,7 +6776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -6791,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>5</v>
       </c>
@@ -6811,7 +6816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>4</v>
       </c>
@@ -6844,9 +6849,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6884,7 +6889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>6</v>
       </c>
@@ -6904,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>5</v>
       </c>
@@ -6924,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -6944,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6964,7 +6969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6984,7 +6989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7004,7 +7009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7024,7 +7029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -7044,7 +7049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7064,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -7084,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
@@ -7104,7 +7109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -7124,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7144,7 +7149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -7164,7 +7169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5</v>
       </c>
@@ -7184,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -7204,7 +7209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -7224,7 +7229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -7247,7 +7252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -7267,7 +7272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2</v>
       </c>
@@ -7290,7 +7295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -7310,7 +7315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -7330,7 +7335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -7353,7 +7358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
@@ -7373,7 +7378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>5</v>
       </c>
@@ -7393,7 +7398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2</v>
       </c>
@@ -7413,7 +7418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -7436,7 +7441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5</v>
       </c>
@@ -7456,7 +7461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>6</v>
       </c>
@@ -7479,7 +7484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>2</v>
       </c>
@@ -7499,7 +7504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>5</v>
       </c>
@@ -7519,7 +7524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -7539,7 +7544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -7559,7 +7564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -7579,7 +7584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -7602,7 +7607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>3</v>
       </c>
@@ -7635,9 +7640,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7675,7 +7680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -7695,7 +7700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>5</v>
       </c>
@@ -7715,7 +7720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7735,7 +7740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -7755,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7778,7 +7783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7798,7 +7803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7818,7 +7823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2</v>
       </c>
@@ -7838,7 +7843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4</v>
       </c>
@@ -7858,7 +7863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
@@ -7878,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -7898,7 +7903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5</v>
       </c>
@@ -7918,7 +7923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7941,7 +7946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -7961,7 +7966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7981,7 +7986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -8004,7 +8009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -8024,7 +8029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5</v>
       </c>
@@ -8044,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -8064,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -8084,7 +8089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5</v>
       </c>
@@ -8104,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6</v>
       </c>
@@ -8124,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -8144,7 +8149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
@@ -8164,7 +8169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -8184,7 +8189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>5</v>
       </c>
@@ -8207,7 +8212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3</v>
       </c>
@@ -8230,7 +8235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5</v>
       </c>
@@ -8250,7 +8255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>6</v>
       </c>
@@ -8270,7 +8275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6</v>
       </c>
@@ -8290,7 +8295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -8310,7 +8315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -8343,9 +8348,9 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8383,7 +8388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -8403,7 +8408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -8423,7 +8428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -8443,7 +8448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8463,7 +8468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8483,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8503,7 +8508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8523,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -8543,7 +8548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -8566,7 +8571,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -8586,7 +8591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
@@ -8609,7 +8614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>4</v>
       </c>
@@ -8629,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -8649,7 +8654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -8669,7 +8674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>5</v>
       </c>
@@ -8689,7 +8694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>6</v>
       </c>
@@ -8709,7 +8714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -8729,7 +8734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -8749,7 +8754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -8769,7 +8774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -8792,7 +8797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -8812,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6</v>
       </c>
@@ -8832,7 +8837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -8852,7 +8857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>5</v>
       </c>
@@ -8872,7 +8877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>4</v>
       </c>
@@ -8892,7 +8897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -8912,7 +8917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5</v>
       </c>
@@ -8932,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>4</v>
       </c>
@@ -8965,9 +8970,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9005,7 +9010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -9025,7 +9030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9045,7 +9050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -9065,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -9085,7 +9090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9105,7 +9110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9125,7 +9130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
@@ -9145,7 +9150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -9165,7 +9170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -9185,7 +9190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -9205,7 +9210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9225,7 +9230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5</v>
       </c>
@@ -9245,7 +9250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -9268,7 +9273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -9288,7 +9293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>4</v>
       </c>
@@ -9308,7 +9313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4</v>
       </c>
@@ -9328,7 +9333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>3</v>
       </c>
@@ -9351,7 +9356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -9371,7 +9376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>5</v>
       </c>
@@ -9391,7 +9396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -9411,7 +9416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>4</v>
       </c>
@@ -9431,7 +9436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -9451,7 +9456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -9474,7 +9479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>5</v>
       </c>
@@ -9494,7 +9499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>5</v>
       </c>
@@ -9514,7 +9519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -9534,7 +9539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -9554,7 +9559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2</v>
       </c>
@@ -9574,7 +9579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>6</v>
       </c>
@@ -9594,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -9627,9 +9632,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9667,7 +9672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -9687,7 +9692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -9707,7 +9712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9727,7 +9732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9747,7 +9752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9770,7 +9775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -9790,7 +9795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -9810,7 +9815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9830,7 +9835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4</v>
       </c>
@@ -9853,7 +9858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -9876,7 +9881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9896,7 +9901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -9916,7 +9921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -9936,7 +9941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -9959,7 +9964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -9979,7 +9984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -9999,7 +10004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -10019,7 +10024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -10042,7 +10047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -10062,7 +10067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2</v>
       </c>
@@ -10082,7 +10087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -10102,7 +10107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -10122,7 +10127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -10142,7 +10147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>5</v>
       </c>
@@ -10162,7 +10167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -10182,7 +10187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2</v>
       </c>
@@ -10215,9 +10220,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10255,7 +10260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -10275,7 +10280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -10295,7 +10300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10315,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -10335,7 +10340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10355,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -10375,7 +10380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10395,7 +10400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -10415,7 +10420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -10435,7 +10440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -10458,7 +10463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>4</v>
       </c>
@@ -10478,7 +10483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -10498,7 +10503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -10518,7 +10523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>6</v>
       </c>
@@ -10538,7 +10543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -10558,7 +10563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4</v>
       </c>
@@ -10578,7 +10583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -10598,7 +10603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -10618,7 +10623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>5</v>
       </c>
@@ -10638,7 +10643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2</v>
       </c>
@@ -10658,7 +10663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -10678,7 +10683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -10698,7 +10703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -10718,7 +10723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
@@ -10738,7 +10743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -10761,7 +10766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>5</v>
       </c>
@@ -10781,7 +10786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>2</v>
       </c>
@@ -10801,7 +10806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -10821,7 +10826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2</v>
       </c>
@@ -10841,7 +10846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -10874,9 +10879,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10914,7 +10919,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -10934,7 +10939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -10954,7 +10959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10974,7 +10979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10994,7 +10999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -11014,7 +11019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -11034,7 +11039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -11054,7 +11059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2</v>
       </c>
@@ -11074,7 +11079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -11094,7 +11099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -11114,7 +11119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -11134,7 +11139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -11154,7 +11159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2</v>
       </c>
@@ -11174,7 +11179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -11194,7 +11199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2</v>
       </c>
@@ -11214,7 +11219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -11234,7 +11239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -11254,7 +11259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -11274,7 +11279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2</v>
       </c>
@@ -11294,7 +11299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -11317,7 +11322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -11337,7 +11342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6</v>
       </c>
@@ -11360,7 +11365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -11380,7 +11385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
@@ -11400,7 +11405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>4</v>
       </c>
@@ -11420,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>2</v>
       </c>
@@ -11440,7 +11445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -11460,7 +11465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>4</v>
       </c>
@@ -11480,7 +11485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>3</v>
       </c>
@@ -11500,7 +11505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>2</v>
       </c>
@@ -11520,7 +11525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>6</v>
       </c>
@@ -11540,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -11560,7 +11565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>4</v>
       </c>
@@ -11583,7 +11588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>2</v>
       </c>
@@ -11603,7 +11608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>4</v>
       </c>
@@ -11626,7 +11631,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>6</v>
       </c>
@@ -11659,9 +11664,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11699,7 +11704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -11719,7 +11724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -11742,7 +11747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11762,7 +11767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>6</v>
       </c>
@@ -11785,7 +11790,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -11805,7 +11810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -11831,7 +11836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11851,7 +11856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2</v>
       </c>
@@ -11871,7 +11876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -11891,7 +11896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -11911,7 +11916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>3</v>
       </c>
@@ -11931,7 +11936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -11951,7 +11956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -11974,7 +11979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -11994,7 +11999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -12014,7 +12019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2</v>
       </c>
@@ -12034,7 +12039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -12054,7 +12059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -12074,7 +12079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -12094,7 +12099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2</v>
       </c>
@@ -12114,7 +12119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -12134,7 +12139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>6</v>
       </c>
@@ -12154,7 +12159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -12174,7 +12179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -12194,7 +12199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2</v>
       </c>
@@ -12217,7 +12222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>4</v>
       </c>
@@ -12240,7 +12245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -12260,7 +12265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -12280,7 +12285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>3</v>
       </c>
@@ -12300,7 +12305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>2</v>
       </c>
@@ -12329,13 +12334,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95BB3D1-1464-4E87-92A3-5061C5CEDC8B}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12373,7 +12378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2</v>
       </c>
@@ -12396,7 +12401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12416,7 +12421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -12436,7 +12441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -12456,7 +12461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -12476,7 +12481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2</v>
       </c>
@@ -12496,7 +12501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -12516,7 +12521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -12536,7 +12541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -12559,7 +12564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5</v>
       </c>
@@ -12579,7 +12584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -12602,7 +12607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -12622,7 +12627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -12642,7 +12647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -12662,7 +12667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -12682,7 +12687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -12702,7 +12707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -12722,7 +12727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5</v>
       </c>
@@ -12742,7 +12747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2</v>
       </c>
@@ -12762,7 +12767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -12782,7 +12787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -12802,7 +12807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -12825,7 +12830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -12845,7 +12850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>5</v>
       </c>
@@ -12865,7 +12870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2</v>
       </c>
@@ -12888,7 +12893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -12908,7 +12913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5</v>
       </c>
@@ -12931,7 +12936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>2</v>
       </c>
@@ -12951,7 +12956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>2</v>
       </c>
@@ -12971,7 +12976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6</v>
       </c>
@@ -12991,7 +12996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>5</v>
       </c>
@@ -13014,7 +13019,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -13034,7 +13039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3</v>
       </c>
@@ -13054,7 +13059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>4</v>
       </c>
@@ -13074,7 +13079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>5</v>
       </c>
@@ -13094,7 +13099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>6</v>
       </c>
@@ -13112,6 +13117,786 @@
       </c>
       <c r="F37">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92692EBF-E838-2E40-9DD8-5E4DBEC9712A}">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13127,9 +13912,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13167,7 +13952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>4</v>
       </c>
@@ -13187,7 +13972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>5</v>
       </c>
@@ -13210,7 +13995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -13233,7 +14018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -13253,7 +14038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -13273,7 +14058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -13293,7 +14078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -13313,7 +14098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -13336,7 +14121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -13356,7 +14141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5</v>
       </c>
@@ -13376,7 +14161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>4</v>
       </c>
@@ -13396,7 +14181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -13416,7 +14201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>3</v>
       </c>
@@ -13436,7 +14221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -13456,7 +14241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>4</v>
       </c>
@@ -13479,7 +14264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>6</v>
       </c>
@@ -13502,7 +14287,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>5</v>
       </c>
@@ -13522,7 +14307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>4</v>
       </c>
@@ -13542,7 +14327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -13562,7 +14347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -13582,7 +14367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -13602,7 +14387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -13622,7 +14407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>4</v>
       </c>
@@ -13642,7 +14427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -13662,7 +14447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -13682,7 +14467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -13702,7 +14487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3</v>
       </c>
@@ -13728,7 +14513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>5</v>
       </c>
@@ -13748,7 +14533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>6</v>
       </c>
@@ -13768,7 +14553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6</v>
       </c>
@@ -13788,7 +14573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>4</v>
       </c>
@@ -13808,7 +14593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>4</v>
       </c>
@@ -13828,7 +14613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3</v>
       </c>
@@ -13848,7 +14633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -13884,9 +14669,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13924,7 +14709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>4</v>
       </c>
@@ -13944,7 +14729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>5</v>
       </c>
@@ -13964,7 +14749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -13984,7 +14769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -14004,7 +14789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14024,7 +14809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -14044,7 +14829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -14064,7 +14849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
@@ -14084,7 +14869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4</v>
       </c>
@@ -14104,7 +14889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -14124,7 +14909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -14144,7 +14929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5</v>
       </c>
@@ -14164,7 +14949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -14184,7 +14969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -14204,7 +14989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -14224,7 +15009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
@@ -14244,7 +15029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -14264,7 +15049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -14284,7 +15069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>5</v>
       </c>
@@ -14304,7 +15089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -14324,7 +15109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>5</v>
       </c>
@@ -14344,7 +15129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -14364,7 +15149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>5</v>
       </c>
@@ -14384,7 +15169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>6</v>
       </c>
@@ -14407,7 +15192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -14427,7 +15212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>5</v>
       </c>
@@ -14447,7 +15232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3</v>
       </c>
@@ -14470,7 +15255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>6</v>
       </c>
@@ -14493,7 +15278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>5</v>
       </c>
@@ -14513,7 +15298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>4</v>
       </c>
@@ -14533,7 +15318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>6</v>
       </c>
@@ -14553,7 +15338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -14589,9 +15374,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14629,7 +15414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -14649,7 +15434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>4</v>
       </c>
@@ -14669,7 +15454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>6</v>
       </c>
@@ -14689,7 +15474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -14709,7 +15494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -14729,7 +15514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -14749,7 +15534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2</v>
       </c>
@@ -14769,7 +15554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4</v>
       </c>
@@ -14789,7 +15574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>4</v>
       </c>
@@ -14809,7 +15594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -14829,7 +15614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>4</v>
       </c>
@@ -14849,7 +15634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -14869,7 +15654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>4</v>
       </c>
@@ -14889,7 +15674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -14909,7 +15694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>6</v>
       </c>
@@ -14929,7 +15714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>6</v>
       </c>
@@ -14949,7 +15734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -14969,7 +15754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>3</v>
       </c>
@@ -14992,7 +15777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -15012,7 +15797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2</v>
       </c>
@@ -15032,7 +15817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -15052,7 +15837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -15072,7 +15857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -15092,7 +15877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>4</v>
       </c>
@@ -15115,7 +15900,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>2</v>
       </c>
@@ -15135,7 +15920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -15155,7 +15940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>4</v>
       </c>
@@ -15175,7 +15960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -15195,7 +15980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -15221,7 +16006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>6</v>
       </c>
@@ -15241,7 +16026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>5</v>
       </c>
@@ -15261,7 +16046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>4</v>
       </c>
@@ -15294,9 +16079,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15334,7 +16119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>6</v>
       </c>
@@ -15354,7 +16139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15377,7 +16162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -15397,7 +16182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -15417,7 +16202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -15437,7 +16222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15457,7 +16242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -15477,7 +16262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -15497,7 +16282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>3</v>
       </c>
@@ -15517,7 +16302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
@@ -15537,7 +16322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>6</v>
       </c>
@@ -15557,7 +16342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>3</v>
       </c>
@@ -15577,7 +16362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -15603,7 +16388,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -15623,7 +16408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2</v>
       </c>
@@ -15643,7 +16428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -15663,7 +16448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -15683,7 +16468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -15706,7 +16491,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -15729,7 +16514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -15749,7 +16534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -15769,7 +16554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -15789,7 +16574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -15809,7 +16594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>4</v>
       </c>
@@ -15829,7 +16614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -15849,7 +16634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>4</v>
       </c>
@@ -15872,7 +16657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -15892,7 +16677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -15925,9 +16710,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15965,7 +16750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -15985,7 +16770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -16005,7 +16790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4</v>
       </c>
@@ -16025,7 +16810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -16045,7 +16830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>6</v>
       </c>
@@ -16065,7 +16850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -16085,7 +16870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -16105,7 +16890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -16125,7 +16910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -16145,7 +16930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -16165,7 +16950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
@@ -16188,7 +16973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>6</v>
       </c>
@@ -16208,7 +16993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>5</v>
       </c>
@@ -16231,7 +17016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>3</v>
       </c>
@@ -16254,7 +17039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -16274,7 +17059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>5</v>
       </c>
@@ -16294,7 +17079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -16317,7 +17102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>4</v>
       </c>
@@ -16337,7 +17122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>6</v>
       </c>
@@ -16357,7 +17142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>5</v>
       </c>
@@ -16377,7 +17162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>4</v>
       </c>
@@ -16397,7 +17182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>5</v>
       </c>
@@ -16417,7 +17202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -16437,7 +17222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
@@ -16457,7 +17242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>4</v>
       </c>
@@ -16477,7 +17262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -16497,7 +17282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>5</v>
       </c>
@@ -16517,7 +17302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -16537,7 +17322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>4</v>
       </c>
@@ -16560,7 +17345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>5</v>
       </c>
@@ -16580,7 +17365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>6</v>
       </c>
@@ -16600,7 +17385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>3</v>
       </c>
@@ -16620,7 +17405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>5</v>
       </c>
@@ -16640,7 +17425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>3</v>
       </c>
@@ -16660,7 +17445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>5</v>
       </c>
@@ -16680,7 +17465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>4</v>
       </c>
@@ -16713,9 +17498,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16753,7 +17538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>5</v>
       </c>
@@ -16773,7 +17558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16793,7 +17578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -16813,7 +17598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -16833,7 +17618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -16853,7 +17638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16873,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>3</v>
       </c>
@@ -16893,7 +17678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>4</v>
       </c>
@@ -16913,7 +17698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>5</v>
       </c>
@@ -16936,7 +17721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>5</v>
       </c>
@@ -16959,7 +17744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>4</v>
       </c>
@@ -16979,7 +17764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -16999,7 +17784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -17019,7 +17804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -17039,7 +17824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -17059,7 +17844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>3</v>
       </c>
@@ -17079,7 +17864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>4</v>
       </c>
@@ -17105,7 +17890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>6</v>
       </c>
@@ -17128,7 +17913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>3</v>
       </c>
@@ -17148,7 +17933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>6</v>
       </c>
@@ -17168,7 +17953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>6</v>
       </c>
@@ -17188,7 +17973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -17208,7 +17993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>2</v>
       </c>
@@ -17228,7 +18013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>2</v>
       </c>
@@ -17248,7 +18033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>0</v>
       </c>
@@ -17268,7 +18053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -17288,7 +18073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -17308,7 +18093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -17328,7 +18113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>3</v>
       </c>
@@ -17351,7 +18136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>2</v>
       </c>
@@ -17384,9 +18169,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -17424,7 +18209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>3</v>
       </c>
@@ -17444,7 +18229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>6</v>
       </c>
@@ -17464,7 +18249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>5</v>
       </c>
@@ -17484,7 +18269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -17504,7 +18289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -17524,7 +18309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -17544,7 +18329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -17564,7 +18349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>3</v>
       </c>
@@ -17584,7 +18369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -17604,7 +18389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>6</v>
       </c>
@@ -17624,7 +18409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>5</v>
       </c>
@@ -17644,7 +18429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>5</v>
       </c>
@@ -17667,7 +18452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>6</v>
       </c>
@@ -17687,7 +18472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -17707,7 +18492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>4</v>
       </c>
@@ -17727,7 +18512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>4</v>
       </c>
@@ -17747,7 +18532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>6</v>
       </c>
@@ -17767,7 +18552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>5</v>
       </c>
@@ -17787,7 +18572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>5</v>
       </c>
@@ -17807,7 +18592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>3</v>
       </c>
@@ -17827,7 +18612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -17850,7 +18635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>4</v>
       </c>
@@ -17870,7 +18655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>6</v>
       </c>
@@ -17890,7 +18675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
@@ -17910,7 +18695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>4</v>
       </c>
@@ -17930,7 +18715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>6</v>
       </c>
@@ -17950,7 +18735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>6</v>
       </c>
@@ -17970,7 +18755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -17990,7 +18775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>3</v>
       </c>
@@ -18010,7 +18795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>5</v>
       </c>
@@ -18030,7 +18815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>4</v>
       </c>
@@ -18050,7 +18835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>6</v>
       </c>
@@ -18070,7 +18855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>2</v>
       </c>
@@ -18090,7 +18875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>4</v>
       </c>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/dartsense/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BD9BCE-8C6F-544E-9397-C27377EBB8B1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2F4DE4-353E-1344-8A0B-F4B05368969A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="816" firstSheet="11" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="36">
   <si>
     <t>Baan</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>Harry</t>
-  </si>
-  <si>
-    <t>Herni</t>
   </si>
 </sst>
 </file>
@@ -13130,7 +13127,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13241,7 +13238,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -13500,8 +13497,8 @@
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
-        <v>36</v>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -13726,8 +13723,8 @@
       <c r="C29" t="s">
         <v>21</v>
       </c>
-      <c r="D29" t="s">
-        <v>36</v>
+      <c r="D29" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -13889,8 +13886,8 @@
       <c r="C37" t="s">
         <v>15</v>
       </c>
-      <c r="D37" t="s">
-        <v>36</v>
+      <c r="D37" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E37">
         <v>2</v>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bas/src/dartsense/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2F4DE4-353E-1344-8A0B-F4B05368969A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="816" firstSheet="11" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="14" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -39,13 +38,14 @@
     <sheet name="2018-02-16" sheetId="53" r:id="rId24"/>
     <sheet name="2018-02-23" sheetId="54" r:id="rId25"/>
     <sheet name="2018-03-02" sheetId="55" r:id="rId26"/>
+    <sheet name="2018-03-09" sheetId="56" r:id="rId27"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="36">
   <si>
     <t>Baan</t>
   </si>
@@ -511,9 +511,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -551,7 +551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -614,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -634,7 +634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -657,7 +657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -717,7 +717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -757,7 +757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -797,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -817,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -837,7 +837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -857,7 +857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -877,7 +877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -897,7 +897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -917,7 +917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -960,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -980,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1216,9 +1216,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1924,9 +1924,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -2586,9 +2586,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -3291,9 +3291,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -4002,9 +4002,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
@@ -4716,9 +4716,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -5350,9 +5350,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -5590,7 +5590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>6</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -6092,9 +6092,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -6846,9 +6846,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -7637,9 +7637,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -8345,9 +8345,9 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -8588,7 +8588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -8967,9 +8967,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -9270,7 +9270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -9290,7 +9290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -9629,9 +9629,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9832,7 +9832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -10001,7 +10001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -10217,9 +10217,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -10277,7 +10277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -10337,7 +10337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -10660,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -10843,7 +10843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -10876,9 +10876,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10916,7 +10916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -10956,7 +10956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -11096,7 +11096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -11362,7 +11362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -11402,7 +11402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -11462,7 +11462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>6</v>
       </c>
@@ -11661,9 +11661,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -11873,7 +11873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -12116,7 +12116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -12136,7 +12136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -12335,9 +12335,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -12664,7 +12664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -12784,7 +12784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -13036,7 +13036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -13056,7 +13056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -13076,7 +13076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -13096,7 +13096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>6</v>
       </c>
@@ -13126,13 +13126,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92692EBF-E838-2E40-9DD8-5E4DBEC9712A}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13290,7 +13290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -13310,7 +13310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -13330,7 +13330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -13370,7 +13370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -13390,7 +13390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -13410,7 +13410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -13470,7 +13470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -13570,7 +13570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -13590,7 +13590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -13650,7 +13650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -13673,7 +13673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -13773,7 +13773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>6</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -13876,7 +13876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -13894,6 +13894,803 @@
       </c>
       <c r="F37">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4CF66B-6AF3-4B68-A86E-9921BBDF9D76}">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -13909,9 +14706,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13949,7 +14746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -13969,7 +14766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -13992,7 +14789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -14015,7 +14812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -14035,7 +14832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -14055,7 +14852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -14075,7 +14872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -14095,7 +14892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -14118,7 +14915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -14138,7 +14935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -14158,7 +14955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -14178,7 +14975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -14198,7 +14995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -14218,7 +15015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -14238,7 +15035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -14261,7 +15058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
@@ -14284,7 +15081,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -14304,7 +15101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4</v>
       </c>
@@ -14324,7 +15121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -14344,7 +15141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -14364,7 +15161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -14384,7 +15181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -14404,7 +15201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
@@ -14424,7 +15221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -14444,7 +15241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -14464,7 +15261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -14484,7 +15281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -14510,7 +15307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -14530,7 +15327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -14550,7 +15347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -14570,7 +15367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -14590,7 +15387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -14610,7 +15407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -14630,7 +15427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -14666,9 +15463,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14706,7 +15503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -14726,7 +15523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -14746,7 +15543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -14766,7 +15563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -14786,7 +15583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -14806,7 +15603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -14826,7 +15623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -14846,7 +15643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -14866,7 +15663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -14886,7 +15683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -14906,7 +15703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -14926,7 +15723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -14946,7 +15743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -14966,7 +15763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -14986,7 +15783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -15006,7 +15803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -15026,7 +15823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -15046,7 +15843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -15066,7 +15863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -15086,7 +15883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -15106,7 +15903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -15126,7 +15923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
@@ -15146,7 +15943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -15166,7 +15963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -15189,7 +15986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
@@ -15209,7 +16006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
@@ -15229,7 +16026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -15252,7 +16049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6</v>
       </c>
@@ -15275,7 +16072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -15295,7 +16092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4</v>
       </c>
@@ -15315,7 +16112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -15335,7 +16132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -15371,9 +16168,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15411,7 +16208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -15431,7 +16228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -15451,7 +16248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -15471,7 +16268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -15491,7 +16288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -15511,7 +16308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15531,7 +16328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -15551,7 +16348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -15571,7 +16368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -15591,7 +16388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -15611,7 +16408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -15631,7 +16428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -15651,7 +16448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
@@ -15671,7 +16468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -15691,7 +16488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6</v>
       </c>
@@ -15711,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
@@ -15731,7 +16528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -15751,7 +16548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -15774,7 +16571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -15794,7 +16591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -15814,7 +16611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -15834,7 +16631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -15854,7 +16651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -15874,7 +16671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -15897,7 +16694,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2</v>
       </c>
@@ -15917,7 +16714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -15937,7 +16734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -15957,7 +16754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -15977,7 +16774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -16003,7 +16800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -16023,7 +16820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -16043,7 +16840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -16076,9 +16873,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16116,7 +16913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6</v>
       </c>
@@ -16136,7 +16933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -16159,7 +16956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -16179,7 +16976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -16199,7 +16996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -16219,7 +17016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16239,7 +17036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -16259,7 +17056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -16279,7 +17076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -16299,7 +17096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -16319,7 +17116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6</v>
       </c>
@@ -16339,7 +17136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -16359,7 +17156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -16385,7 +17182,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -16405,7 +17202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -16425,7 +17222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -16445,7 +17242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -16465,7 +17262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -16488,7 +17285,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -16511,7 +17308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -16531,7 +17328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -16551,7 +17348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -16571,7 +17368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -16591,7 +17388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -16611,7 +17408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -16631,7 +17428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -16654,7 +17451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -16674,7 +17471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -16707,9 +17504,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16747,7 +17544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -16767,7 +17564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -16787,7 +17584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -16807,7 +17604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -16827,7 +17624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -16847,7 +17644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -16867,7 +17664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -16887,7 +17684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -16907,7 +17704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -16927,7 +17724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -16947,7 +17744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -16970,7 +17767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -16990,7 +17787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -17013,7 +17810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -17036,7 +17833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -17056,7 +17853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -17076,7 +17873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -17099,7 +17896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4</v>
       </c>
@@ -17119,7 +17916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -17139,7 +17936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -17159,7 +17956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -17179,7 +17976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -17199,7 +17996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -17219,7 +18016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -17239,7 +18036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -17259,7 +18056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -17279,7 +18076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -17299,7 +18096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -17319,7 +18116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -17342,7 +18139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -17362,7 +18159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -17382,7 +18179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -17402,7 +18199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5</v>
       </c>
@@ -17422,7 +18219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -17442,7 +18239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -17462,7 +18259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
@@ -17495,9 +18292,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -17535,7 +18332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5</v>
       </c>
@@ -17555,7 +18352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -17575,7 +18372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -17595,7 +18392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -17615,7 +18412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -17635,7 +18432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -17655,7 +18452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -17675,7 +18472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
@@ -17695,7 +18492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5</v>
       </c>
@@ -17718,7 +18515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -17741,7 +18538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -17761,7 +18558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -17781,7 +18578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -17801,7 +18598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -17821,7 +18618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -17841,7 +18638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -17861,7 +18658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -17887,7 +18684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -17910,7 +18707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -17930,7 +18727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>6</v>
       </c>
@@ -17950,7 +18747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -17970,7 +18767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -17990,7 +18787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -18010,7 +18807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -18030,7 +18827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -18050,7 +18847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -18070,7 +18867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -18090,7 +18887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -18110,7 +18907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -18133,7 +18930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -18166,9 +18963,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -18206,7 +19003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -18226,7 +19023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
@@ -18246,7 +19043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -18266,7 +19063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -18286,7 +19083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -18306,7 +19103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -18326,7 +19123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -18346,7 +19143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -18366,7 +19163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -18386,7 +19183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -18406,7 +19203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -18426,7 +19223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -18449,7 +19246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -18469,7 +19266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5</v>
       </c>
@@ -18489,7 +19286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -18509,7 +19306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -18529,7 +19326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -18549,7 +19346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -18569,7 +19366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5</v>
       </c>
@@ -18589,7 +19386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -18609,7 +19406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -18632,7 +19429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -18652,7 +19449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -18672,7 +19469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3</v>
       </c>
@@ -18692,7 +19489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -18712,7 +19509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -18732,7 +19529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -18752,7 +19549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -18772,7 +19569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -18792,7 +19589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -18812,7 +19609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -18832,7 +19629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6</v>
       </c>
@@ -18852,7 +19649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2</v>
       </c>
@@ -18872,7 +19669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,8 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E530B6-3AF9-48D8-A1CE-0C8E3CB44855}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="14" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" tabRatio="816" firstSheet="15" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -39,13 +40,14 @@
     <sheet name="2018-02-23" sheetId="54" r:id="rId25"/>
     <sheet name="2018-03-02" sheetId="55" r:id="rId26"/>
     <sheet name="2018-03-09" sheetId="56" r:id="rId27"/>
+    <sheet name="2018-03-16" sheetId="57" r:id="rId28"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="36">
   <si>
     <t>Baan</t>
   </si>
@@ -13905,8 +13907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4CF66B-6AF3-4B68-A86E-9921BBDF9D76}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14691,6 +14693,588 @@
       </c>
       <c r="G37">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06922FF2-D5B2-4A57-86EC-C43E29BE7029}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E530B6-3AF9-48D8-A1CE-0C8E3CB44855}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A928D5-D638-48EC-9662-67ECCB8D3B86}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" tabRatio="816" firstSheet="15" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="15" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -41,13 +41,14 @@
     <sheet name="2018-03-02" sheetId="55" r:id="rId26"/>
     <sheet name="2018-03-09" sheetId="56" r:id="rId27"/>
     <sheet name="2018-03-16" sheetId="57" r:id="rId28"/>
+    <sheet name="2018-03-23" sheetId="58" r:id="rId29"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="36">
   <si>
     <t>Baan</t>
   </si>
@@ -14704,8 +14705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06922FF2-D5B2-4A57-86EC-C43E29BE7029}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15274,6 +15275,671 @@
         <v>0</v>
       </c>
       <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4DD821-223D-41AA-8EF8-34F31AAB5D02}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>2</v>
       </c>
     </row>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A928D5-D638-48EC-9662-67ECCB8D3B86}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A98FA3-4443-4183-9F6B-99EE6D7F89B5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="15" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="17" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -39,16 +39,17 @@
     <sheet name="2018-02-16" sheetId="53" r:id="rId24"/>
     <sheet name="2018-02-23" sheetId="54" r:id="rId25"/>
     <sheet name="2018-03-02" sheetId="55" r:id="rId26"/>
-    <sheet name="2018-03-09" sheetId="56" r:id="rId27"/>
-    <sheet name="2018-03-16" sheetId="57" r:id="rId28"/>
+    <sheet name="2018-03-16" sheetId="57" r:id="rId27"/>
+    <sheet name="2018-03-09" sheetId="56" r:id="rId28"/>
     <sheet name="2018-03-23" sheetId="58" r:id="rId29"/>
+    <sheet name="2018-03-30" sheetId="59" r:id="rId30"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="36">
   <si>
     <t>Baan</t>
   </si>
@@ -13905,6 +13906,588 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06922FF2-D5B2-4A57-86EC-C43E29BE7029}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4CF66B-6AF3-4B68-A86E-9921BBDF9D76}">
   <dimension ref="A1:L37"/>
   <sheetViews>
@@ -14701,594 +15284,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06922FF2-D5B2-4A57-86EC-C43E29BE7029}">
-  <dimension ref="A1:L27"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>6</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>6</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4DD821-223D-41AA-8EF8-34F31AAB5D02}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16705,6 +16706,637 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065875E6-7C5D-4DE5-8A47-C24EBB2F66F2}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L33"/>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A98FA3-4443-4183-9F6B-99EE6D7F89B5}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C9942A-4796-4B5E-9152-4F32ED65A48F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="816" firstSheet="17" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="816" firstSheet="17" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -43,13 +43,14 @@
     <sheet name="2018-03-09" sheetId="56" r:id="rId28"/>
     <sheet name="2018-03-23" sheetId="58" r:id="rId29"/>
     <sheet name="2018-03-30" sheetId="59" r:id="rId30"/>
+    <sheet name="2018-04-06" sheetId="60" r:id="rId31"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="36">
   <si>
     <t>Baan</t>
   </si>
@@ -16710,8 +16711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065875E6-7C5D-4DE5-8A47-C24EBB2F66F2}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17330,6 +17331,425 @@
       </c>
       <c r="G29">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D06C5A-E62E-4A4B-8E2C-A28E7E41227F}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C9942A-4796-4B5E-9152-4F32ED65A48F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C5CC29-9DC3-4655-8EF6-7C481245A43B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="816" firstSheet="17" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="816" firstSheet="17" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -44,13 +44,14 @@
     <sheet name="2018-03-23" sheetId="58" r:id="rId29"/>
     <sheet name="2018-03-30" sheetId="59" r:id="rId30"/>
     <sheet name="2018-04-06" sheetId="60" r:id="rId31"/>
+    <sheet name="2018-04-13" sheetId="61" r:id="rId32"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="36">
   <si>
     <t>Baan</t>
   </si>
@@ -17342,8 +17343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D06C5A-E62E-4A4B-8E2C-A28E7E41227F}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17749,6 +17750,748 @@
         <v>0</v>
       </c>
       <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE2E086-4BAD-41CF-B47A-457349C96903}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>2</v>
       </c>
     </row>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C5CC29-9DC3-4655-8EF6-7C481245A43B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02491269-ACF2-460E-BA9B-19C123970CA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="816" firstSheet="17" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17763,7 +17763,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18109,7 +18109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -18129,7 +18129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -18149,7 +18149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -18169,7 +18169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -18189,7 +18189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -18209,7 +18209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -18228,11 +18228,11 @@
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -18252,7 +18252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -18272,7 +18272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -18292,7 +18292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -18312,7 +18312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -18332,7 +18332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -18352,7 +18352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -18372,7 +18372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -18392,7 +18392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -18412,7 +18412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>

--- a/data/Austerlitz_seizoen_2017-2018.xlsx
+++ b/data/Austerlitz_seizoen_2017-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\src\dartsense\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02491269-ACF2-460E-BA9B-19C123970CA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3331231D-6DC8-4BEE-93AD-7193BBE7CFA3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="816" firstSheet="17" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="766" firstSheet="19" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2017-09-01" sheetId="30" r:id="rId1"/>
@@ -45,13 +45,14 @@
     <sheet name="2018-03-30" sheetId="59" r:id="rId30"/>
     <sheet name="2018-04-06" sheetId="60" r:id="rId31"/>
     <sheet name="2018-04-13" sheetId="61" r:id="rId32"/>
+    <sheet name="2018-04-20" sheetId="63" r:id="rId33"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="36">
   <si>
     <t>Baan</t>
   </si>
@@ -513,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1210,6 +1211,7 @@
   <sortState ref="A2:L34">
     <sortCondition ref="B2:B34"/>
   </sortState>
+  <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5352,8 +5354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8347,7 +8349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -15955,8 +15957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17762,8 +17764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE2E086-4BAD-41CF-B47A-457349C96903}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18496,6 +18498,554 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C993B0-90DE-4AB3-9846-E5918B15FC61}">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:L25">
+    <sortCondition ref="B2:B25"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18504,7 +19054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
